--- a/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
+++ b/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A967990-1643-4849-83FC-0A358AAA023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567F764-0D98-4607-8126-67A6D7E74BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
@@ -629,9 +629,6 @@
     <t>2. Add new words in lower format to cell.</t>
   </si>
   <si>
-    <t>3. A Duplicate by color rule is included to help look for duplicate entries.  Change rule if need be.</t>
-  </si>
-  <si>
     <t>phillip</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
     <t>us fish</t>
   </si>
   <si>
-    <t>Us Dept Of The Interior</t>
-  </si>
-  <si>
     <t>us dept of the interior</t>
   </si>
   <si>
@@ -678,6 +672,12 @@
   </si>
   <si>
     <t>allen</t>
+  </si>
+  <si>
+    <t>3. Order of groups is imporant, with those on the further right being the overrides with those on the left.</t>
+  </si>
+  <si>
+    <t>4. A Duplicate by color rule is included to help look for duplicate entries.  Change rule if need be when adding in new groups.</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1200,7 @@
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,16 +1217,18 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
       <c r="C11" t="str">
         <f>LOWER(B11)</f>
-        <v>us dept of the interior</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T3" t="s">
         <v>84</v>
@@ -1762,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>98</v>
@@ -1774,7 +1776,7 @@
         <v>127</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T4" t="s">
         <v>84</v>
@@ -1890,7 +1892,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>119</v>
@@ -2070,7 +2072,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>34</v>
@@ -2080,7 +2082,7 @@
         <v>142</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T6" t="s">
         <v>84</v>
@@ -2507,7 +2509,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T9" t="s">
         <v>84</v>
@@ -3301,7 +3303,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -4093,7 +4095,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s">
         <v>84</v>
@@ -4617,7 +4619,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T25" t="s">
         <v>84</v>
@@ -7294,7 +7296,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T46" t="s">
         <v>84</v>
@@ -7675,7 +7677,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T49" t="s">
         <v>84</v>
@@ -7802,7 +7804,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T50" t="s">
         <v>84</v>
@@ -8691,7 +8693,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T57" t="s">
         <v>84</v>
@@ -8945,7 +8947,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T59" t="s">
         <v>84</v>

--- a/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
+++ b/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567F764-0D98-4607-8126-67A6D7E74BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A4E7C-69FE-4A01-86AC-C21BA608A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
     <sheet name="TrackWordsByGroup" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="361">
   <si>
     <t>United States of America</t>
   </si>
@@ -678,6 +679,447 @@
   </si>
   <si>
     <t>4. A Duplicate by color rule is included to help look for duplicate entries.  Change rule if need be when adding in new groups.</t>
+  </si>
+  <si>
+    <t>Reclamation Contractor</t>
+  </si>
+  <si>
+    <t>Ainsworth Irrigation District</t>
+  </si>
+  <si>
+    <t>Boise Project Board Of Control</t>
+  </si>
+  <si>
+    <t>Bridger Valley Water Conservancy District</t>
+  </si>
+  <si>
+    <t>Browns Creek Irrigation District</t>
+  </si>
+  <si>
+    <t>Bufordtrenton Irrigation District</t>
+  </si>
+  <si>
+    <t>California Department Of Water Resources</t>
+  </si>
+  <si>
+    <t>Canadian River Municipal Water Authority</t>
+  </si>
+  <si>
+    <t>CARBON WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>Carlsbad Irrigation District</t>
+  </si>
+  <si>
+    <t>Casitas Municipal Water District</t>
+  </si>
+  <si>
+    <t>Central Arizona Project</t>
+  </si>
+  <si>
+    <t>Central Arizona Water Conservation District</t>
+  </si>
+  <si>
+    <t>Central Irrigation District</t>
+  </si>
+  <si>
+    <t>Central Oregon Irrigation District</t>
+  </si>
+  <si>
+    <t>CENTRAL UTAH WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>Chimney Rock Irrigation District</t>
+  </si>
+  <si>
+    <t>City Of Corpus Christi</t>
+  </si>
+  <si>
+    <t>City Of Rapid City</t>
+  </si>
+  <si>
+    <t>Coachella Valley Water District</t>
+  </si>
+  <si>
+    <t>Contra Costa Water District</t>
+  </si>
+  <si>
+    <t>COTTONWOOD CREEK CONSOLIDATED IRRIGATION COMPANY</t>
+  </si>
+  <si>
+    <t>Deaver Irrigation District</t>
+  </si>
+  <si>
+    <t>Eden Valley Irrigation And Drainage District</t>
+  </si>
+  <si>
+    <t>El Dorado Irrigation District</t>
+  </si>
+  <si>
+    <t>EMERY WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>Farmers Irrigation District</t>
+  </si>
+  <si>
+    <t>Fort Shaw Irrigation District</t>
+  </si>
+  <si>
+    <t>Frenchman Valley Irrigation District</t>
+  </si>
+  <si>
+    <t>Gering Irrigation District</t>
+  </si>
+  <si>
+    <t>Goshen Irrigation District</t>
+  </si>
+  <si>
+    <t>Greenfields Irrigation District</t>
+  </si>
+  <si>
+    <t>Hammond Conservancy District</t>
+  </si>
+  <si>
+    <t>Heart Mountain Irrigation District</t>
+  </si>
+  <si>
+    <t>Imperial Irrigation District</t>
+  </si>
+  <si>
+    <t>Kittitas Reclamation District</t>
+  </si>
+  <si>
+    <t>Lewiston Orchards Irrigation District</t>
+  </si>
+  <si>
+    <t>Little Wood River Irrigation District</t>
+  </si>
+  <si>
+    <t>Loup River Public Power District</t>
+  </si>
+  <si>
+    <t>Lower Powder River Irrigation District</t>
+  </si>
+  <si>
+    <t>Madera Irrigation District</t>
+  </si>
+  <si>
+    <t>Mann Creek Irrigation District</t>
+  </si>
+  <si>
+    <t>MAPLETON IRRIGATION COMPANY</t>
+  </si>
+  <si>
+    <t>Maricopa Water District</t>
+  </si>
+  <si>
+    <t>Midvale Irrigation District</t>
+  </si>
+  <si>
+    <t>Mirage Flats Irrigation District</t>
+  </si>
+  <si>
+    <t>MOON LAKE WATER USERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>NEWTON WATER USERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>OGDEN RIVER WATER USERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Okanogan Irrigation District</t>
+  </si>
+  <si>
+    <t>Owl Creek Irrigation District</t>
+  </si>
+  <si>
+    <t>Pacificorp</t>
+  </si>
+  <si>
+    <t>Palo Verde Irrigation District</t>
+  </si>
+  <si>
+    <t>Pathfinder Irrigation District</t>
+  </si>
+  <si>
+    <t>Pershing County Water Conservation District</t>
+  </si>
+  <si>
+    <t>PROVO RIVER WATER USERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Reeves County Water Improvement District 1</t>
+  </si>
+  <si>
+    <t>Salt River Valley Water Users Association</t>
+  </si>
+  <si>
+    <t>San Benito County Water District</t>
+  </si>
+  <si>
+    <t>San Diego County Water Authority</t>
+  </si>
+  <si>
+    <t>SANPETE WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>Shoshone Irrigation District</t>
+  </si>
+  <si>
+    <t>Sidon Irrigation District</t>
+  </si>
+  <si>
+    <t>Solano County Water Agency</t>
+  </si>
+  <si>
+    <t>Solano Irrigation District</t>
+  </si>
+  <si>
+    <t>South Columbia Basin Irrigation District</t>
+  </si>
+  <si>
+    <t>Truckeecarson Irrigation District</t>
+  </si>
+  <si>
+    <t>UINTAH WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>Vale Oregon Irrigation District</t>
+  </si>
+  <si>
+    <t>WEBER BASIN WATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>WEBER RIVER WATER USERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Whitestone Reclamation District</t>
+  </si>
+  <si>
+    <t>Willwood Irrigation District</t>
+  </si>
+  <si>
+    <t>Yakimatieton Irrigation District</t>
+  </si>
+  <si>
+    <t>ainsworth irrigation district</t>
+  </si>
+  <si>
+    <t>boise project board of control</t>
+  </si>
+  <si>
+    <t>bridger valley water conservancy district</t>
+  </si>
+  <si>
+    <t>browns creek irrigation district</t>
+  </si>
+  <si>
+    <t>bufordtrenton irrigation district</t>
+  </si>
+  <si>
+    <t>california department of water resources</t>
+  </si>
+  <si>
+    <t>canadian river municipal water authority</t>
+  </si>
+  <si>
+    <t>carbon water conservancy district</t>
+  </si>
+  <si>
+    <t>carlsbad irrigation district</t>
+  </si>
+  <si>
+    <t>casitas municipal water district</t>
+  </si>
+  <si>
+    <t>central arizona project</t>
+  </si>
+  <si>
+    <t>central arizona water conservation district</t>
+  </si>
+  <si>
+    <t>central irrigation district</t>
+  </si>
+  <si>
+    <t>central oregon irrigation district</t>
+  </si>
+  <si>
+    <t>central utah water conservancy district</t>
+  </si>
+  <si>
+    <t>chimney rock irrigation district</t>
+  </si>
+  <si>
+    <t>city of corpus christi</t>
+  </si>
+  <si>
+    <t>city of rapid city</t>
+  </si>
+  <si>
+    <t>coachella valley water district</t>
+  </si>
+  <si>
+    <t>contra costa water district</t>
+  </si>
+  <si>
+    <t>cottonwood creek consolidated irrigation company</t>
+  </si>
+  <si>
+    <t>deaver irrigation district</t>
+  </si>
+  <si>
+    <t>eden valley irrigation and drainage district</t>
+  </si>
+  <si>
+    <t>el dorado irrigation district</t>
+  </si>
+  <si>
+    <t>emery water conservancy district</t>
+  </si>
+  <si>
+    <t>farmers irrigation district</t>
+  </si>
+  <si>
+    <t>fort shaw irrigation district</t>
+  </si>
+  <si>
+    <t>frenchman valley irrigation district</t>
+  </si>
+  <si>
+    <t>gering irrigation district</t>
+  </si>
+  <si>
+    <t>goshen irrigation district</t>
+  </si>
+  <si>
+    <t>greenfields irrigation district</t>
+  </si>
+  <si>
+    <t>hammond conservancy district</t>
+  </si>
+  <si>
+    <t>heart mountain irrigation district</t>
+  </si>
+  <si>
+    <t>imperial irrigation district</t>
+  </si>
+  <si>
+    <t>kittitas reclamation district</t>
+  </si>
+  <si>
+    <t>lewiston orchards irrigation district</t>
+  </si>
+  <si>
+    <t>little wood river irrigation district</t>
+  </si>
+  <si>
+    <t>loup river public power district</t>
+  </si>
+  <si>
+    <t>lower powder river irrigation district</t>
+  </si>
+  <si>
+    <t>madera irrigation district</t>
+  </si>
+  <si>
+    <t>mann creek irrigation district</t>
+  </si>
+  <si>
+    <t>mapleton irrigation company</t>
+  </si>
+  <si>
+    <t>maricopa water district</t>
+  </si>
+  <si>
+    <t>midvale irrigation district</t>
+  </si>
+  <si>
+    <t>mirage flats irrigation district</t>
+  </si>
+  <si>
+    <t>moon lake water users association</t>
+  </si>
+  <si>
+    <t>newton water users association</t>
+  </si>
+  <si>
+    <t>ogden river water users association</t>
+  </si>
+  <si>
+    <t>okanogan irrigation district</t>
+  </si>
+  <si>
+    <t>owl creek irrigation district</t>
+  </si>
+  <si>
+    <t>pacificorp</t>
+  </si>
+  <si>
+    <t>palo verde irrigation district</t>
+  </si>
+  <si>
+    <t>pathfinder irrigation district</t>
+  </si>
+  <si>
+    <t>pershing county water conservation district</t>
+  </si>
+  <si>
+    <t>provo river water users association</t>
+  </si>
+  <si>
+    <t>reeves county water improvement district 1</t>
+  </si>
+  <si>
+    <t>salt river valley water users association</t>
+  </si>
+  <si>
+    <t>san benito county water district</t>
+  </si>
+  <si>
+    <t>san diego county water authority</t>
+  </si>
+  <si>
+    <t>sanpete water conservancy district</t>
+  </si>
+  <si>
+    <t>shoshone irrigation district</t>
+  </si>
+  <si>
+    <t>sidon irrigation district</t>
+  </si>
+  <si>
+    <t>solano county water agency</t>
+  </si>
+  <si>
+    <t>solano irrigation district</t>
+  </si>
+  <si>
+    <t>south columbia basin irrigation district</t>
+  </si>
+  <si>
+    <t>truckeecarson irrigation district</t>
+  </si>
+  <si>
+    <t>uintah water conservancy district</t>
+  </si>
+  <si>
+    <t>vale oregon irrigation district</t>
+  </si>
+  <si>
+    <t>weber basin water conservancy district</t>
+  </si>
+  <si>
+    <t>weber river water users association</t>
+  </si>
+  <si>
+    <t>whitestone reclamation district</t>
+  </si>
+  <si>
+    <t>willwood irrigation district</t>
+  </si>
+  <si>
+    <t>yakimatieton irrigation district</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1315,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1200,7 +1649,7 @@
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I26" sqref="I21:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,66 +1687,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF9ACB-9E54-49DA-868E-41FC519C5A68}">
-  <dimension ref="A1:BB198"/>
+  <dimension ref="A1:BC198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:55" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
       <c r="U1" s="6" t="s">
         <v>84</v>
       </c>
@@ -1400,65 +1848,68 @@
       <c r="BB1" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="BC1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="U2" s="10" t="s">
         <v>84</v>
       </c>
@@ -1561,65 +2012,68 @@
       <c r="BB2" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="BC2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
       <c r="U3" t="s">
         <v>84</v>
       </c>
@@ -1722,65 +2176,68 @@
       <c r="BB3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T4" t="s">
-        <v>84</v>
-      </c>
       <c r="U4" t="s">
         <v>84</v>
       </c>
@@ -1883,61 +2340,64 @@
       <c r="BB4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" t="s">
-        <v>84</v>
-      </c>
       <c r="U5" t="s">
         <v>84</v>
       </c>
@@ -2040,53 +2500,56 @@
       <c r="BB5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T6" t="s">
-        <v>84</v>
-      </c>
       <c r="U6" t="s">
         <v>84</v>
       </c>
@@ -2189,49 +2652,52 @@
       <c r="BB6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" t="s">
-        <v>84</v>
-      </c>
       <c r="U7" t="s">
         <v>84</v>
       </c>
@@ -2334,45 +2800,48 @@
       <c r="BB7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" t="s">
-        <v>84</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="U8" t="s">
         <v>84</v>
       </c>
@@ -2475,45 +2944,48 @@
       <c r="BB8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" t="s">
-        <v>84</v>
-      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="U9" t="s">
         <v>84</v>
       </c>
@@ -2616,43 +3088,46 @@
       <c r="BB9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="U10" t="s">
         <v>84</v>
       </c>
@@ -2755,37 +3230,40 @@
       <c r="BB10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" t="s">
-        <v>84</v>
-      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="U11" t="s">
         <v>84</v>
       </c>
@@ -2888,37 +3366,40 @@
       <c r="BB11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" t="s">
-        <v>84</v>
-      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="U12" t="s">
         <v>84</v>
       </c>
@@ -3021,37 +3502,40 @@
       <c r="BB12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" t="s">
-        <v>84</v>
-      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="U13" t="s">
         <v>84</v>
       </c>
@@ -3154,35 +3638,38 @@
       <c r="BB13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" t="s">
-        <v>84</v>
-      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="U14" t="s">
         <v>84</v>
       </c>
@@ -3285,35 +3772,38 @@
       <c r="BB14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T15" t="s">
-        <v>84</v>
-      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="U15" t="s">
         <v>84</v>
       </c>
@@ -3416,35 +3906,38 @@
       <c r="BB15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" t="s">
-        <v>84</v>
-      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="U16" t="s">
         <v>84</v>
       </c>
@@ -3547,35 +4040,38 @@
       <c r="BB16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T17" t="s">
-        <v>84</v>
-      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
       <c r="U17" t="s">
         <v>84</v>
       </c>
@@ -3678,35 +4174,38 @@
       <c r="BB17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" t="s">
-        <v>84</v>
-      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="U18" t="s">
         <v>84</v>
       </c>
@@ -3809,35 +4308,38 @@
       <c r="BB18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T19" t="s">
-        <v>84</v>
-      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="U19" t="s">
         <v>84</v>
       </c>
@@ -3940,35 +4442,38 @@
       <c r="BB19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T20" t="s">
-        <v>84</v>
-      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="U20" t="s">
         <v>84</v>
       </c>
@@ -4071,35 +4576,38 @@
       <c r="BB20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="T21" t="s">
-        <v>84</v>
-      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
       <c r="U21" t="s">
         <v>84</v>
       </c>
@@ -4202,35 +4710,38 @@
       <c r="BB21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
       <c r="U22" t="s">
         <v>84</v>
       </c>
@@ -4333,35 +4844,38 @@
       <c r="BB22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
       <c r="U23" t="s">
         <v>84</v>
       </c>
@@ -4464,35 +4978,38 @@
       <c r="BB23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T24" t="s">
-        <v>84</v>
-      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
       <c r="U24" t="s">
         <v>84</v>
       </c>
@@ -4595,35 +5112,38 @@
       <c r="BB24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
-      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
       <c r="U25" t="s">
         <v>84</v>
       </c>
@@ -4726,33 +5246,36 @@
       <c r="BB25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T26" t="s">
-        <v>84</v>
-      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
       <c r="U26" t="s">
         <v>84</v>
       </c>
@@ -4855,33 +5378,36 @@
       <c r="BB26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="BC26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T27" t="s">
-        <v>84</v>
-      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="U27" t="s">
         <v>84</v>
       </c>
@@ -4984,33 +5510,36 @@
       <c r="BB27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="BC27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" t="s">
-        <v>84</v>
-      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
       <c r="U28" t="s">
         <v>84</v>
       </c>
@@ -5113,33 +5642,36 @@
       <c r="BB28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="BC28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" t="s">
-        <v>84</v>
-      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
       <c r="U29" t="s">
         <v>84</v>
       </c>
@@ -5242,33 +5774,36 @@
       <c r="BB29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="BC29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T30" t="s">
-        <v>84</v>
-      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
       <c r="U30" t="s">
         <v>84</v>
       </c>
@@ -5371,31 +5906,34 @@
       <c r="BB30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="BC30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T31" t="s">
-        <v>84</v>
-      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
       <c r="U31" t="s">
         <v>84</v>
       </c>
@@ -5498,31 +6036,34 @@
       <c r="BB31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="BC31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="T32" t="s">
-        <v>84</v>
-      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
       <c r="U32" t="s">
         <v>84</v>
       </c>
@@ -5625,31 +6166,34 @@
       <c r="BB32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="BC32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T33" t="s">
-        <v>84</v>
-      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
       <c r="U33" t="s">
         <v>84</v>
       </c>
@@ -5752,31 +6296,34 @@
       <c r="BB33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="BC33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T34" t="s">
-        <v>84</v>
-      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
       <c r="U34" t="s">
         <v>84</v>
       </c>
@@ -5879,31 +6426,34 @@
       <c r="BB34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="BC34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T35" t="s">
-        <v>84</v>
-      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
       <c r="U35" t="s">
         <v>84</v>
       </c>
@@ -6006,31 +6556,34 @@
       <c r="BB35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="BC35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T36" t="s">
-        <v>84</v>
-      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
       <c r="U36" t="s">
         <v>84</v>
       </c>
@@ -6133,31 +6686,34 @@
       <c r="BB36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="BC36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T37" t="s">
-        <v>84</v>
-      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
       <c r="U37" t="s">
         <v>84</v>
       </c>
@@ -6260,31 +6816,34 @@
       <c r="BB37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="BC37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T38" t="s">
-        <v>84</v>
-      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
       <c r="U38" t="s">
         <v>84</v>
       </c>
@@ -6387,31 +6946,34 @@
       <c r="BB38" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="BC38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T39" t="s">
-        <v>84</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
       <c r="U39" t="s">
         <v>84</v>
       </c>
@@ -6514,31 +7076,34 @@
       <c r="BB39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="BC39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s">
-        <v>84</v>
-      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
       <c r="U40" t="s">
         <v>84</v>
       </c>
@@ -6641,31 +7206,34 @@
       <c r="BB40" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="BC40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T41" t="s">
-        <v>84</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
       <c r="U41" t="s">
         <v>84</v>
       </c>
@@ -6768,31 +7336,34 @@
       <c r="BB41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="BC41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T42" t="s">
-        <v>84</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
       <c r="U42" t="s">
         <v>84</v>
       </c>
@@ -6895,31 +7466,34 @@
       <c r="BB42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="BC42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T43" t="s">
-        <v>84</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
       <c r="U43" t="s">
         <v>84</v>
       </c>
@@ -7022,31 +7596,34 @@
       <c r="BB43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="BC43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="T44" t="s">
-        <v>84</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
       <c r="U44" t="s">
         <v>84</v>
       </c>
@@ -7149,31 +7726,34 @@
       <c r="BB44" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="BC44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T45" t="s">
-        <v>84</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
       <c r="U45" t="s">
         <v>84</v>
       </c>
@@ -7276,31 +7856,34 @@
       <c r="BB45" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="BC45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="T46" t="s">
-        <v>84</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
       <c r="U46" t="s">
         <v>84</v>
       </c>
@@ -7403,31 +7986,34 @@
       <c r="BB46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="BC46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s">
-        <v>84</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
       <c r="U47" t="s">
         <v>84</v>
       </c>
@@ -7530,31 +8116,34 @@
       <c r="BB47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+      <c r="BC47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s">
-        <v>84</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
       <c r="U48" t="s">
         <v>84</v>
       </c>
@@ -7657,31 +8246,34 @@
       <c r="BB48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="BC48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="T49" t="s">
-        <v>84</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
       <c r="U49" t="s">
         <v>84</v>
       </c>
@@ -7784,31 +8376,34 @@
       <c r="BB49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+      <c r="BC49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="T50" t="s">
-        <v>84</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
       <c r="U50" t="s">
         <v>84</v>
       </c>
@@ -7911,31 +8506,34 @@
       <c r="BB50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+      <c r="BC50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T51" t="s">
-        <v>84</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
       <c r="U51" t="s">
         <v>84</v>
       </c>
@@ -8038,31 +8636,34 @@
       <c r="BB51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="BC51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s">
-        <v>84</v>
-      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
       <c r="U52" t="s">
         <v>84</v>
       </c>
@@ -8165,31 +8766,34 @@
       <c r="BB52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="BC52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s">
-        <v>84</v>
-      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
       <c r="U53" t="s">
         <v>84</v>
       </c>
@@ -8292,31 +8896,34 @@
       <c r="BB53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="BC53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T54" t="s">
-        <v>84</v>
-      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
       <c r="U54" t="s">
         <v>84</v>
       </c>
@@ -8419,31 +9026,34 @@
       <c r="BB54" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="BC54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s">
-        <v>84</v>
-      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
       <c r="U55" t="s">
         <v>84</v>
       </c>
@@ -8546,31 +9156,34 @@
       <c r="BB55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+      <c r="BC55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s">
-        <v>84</v>
-      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
       <c r="U56" t="s">
         <v>84</v>
       </c>
@@ -8673,31 +9286,34 @@
       <c r="BB56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="BC56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="T57" t="s">
-        <v>84</v>
-      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
       <c r="U57" t="s">
         <v>84</v>
       </c>
@@ -8800,31 +9416,34 @@
       <c r="BB57" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+      <c r="BC57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T58" t="s">
-        <v>84</v>
-      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
       <c r="U58" t="s">
         <v>84</v>
       </c>
@@ -8927,31 +9546,34 @@
       <c r="BB58" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="BC58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="T59" t="s">
-        <v>84</v>
-      </c>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
       <c r="U59" t="s">
         <v>84</v>
       </c>
@@ -9054,31 +9676,34 @@
       <c r="BB59" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+      <c r="BC59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s">
-        <v>84</v>
-      </c>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
       <c r="U60" t="s">
         <v>84</v>
       </c>
@@ -9181,31 +9806,34 @@
       <c r="BB60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="BC60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T61" t="s">
-        <v>84</v>
-      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
       <c r="U61" t="s">
         <v>84</v>
       </c>
@@ -9308,11 +9936,32 @@
       <c r="BB61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="T62" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
       <c r="U62" t="s">
         <v>84</v>
       </c>
@@ -9415,11 +10064,32 @@
       <c r="BB62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="T63" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
       <c r="U63" t="s">
         <v>84</v>
       </c>
@@ -9522,11 +10192,32 @@
       <c r="BB63" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="T64" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
       <c r="U64" t="s">
         <v>84</v>
       </c>
@@ -9629,11 +10320,32 @@
       <c r="BB64" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T65" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
       <c r="U65" t="s">
         <v>84</v>
       </c>
@@ -9736,11 +10448,32 @@
       <c r="BB65" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T66" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
       <c r="U66" t="s">
         <v>84</v>
       </c>
@@ -9843,11 +10576,32 @@
       <c r="BB66" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T67" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
       <c r="U67" t="s">
         <v>84</v>
       </c>
@@ -9950,11 +10704,32 @@
       <c r="BB67" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T68" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
       <c r="U68" t="s">
         <v>84</v>
       </c>
@@ -10057,11 +10832,32 @@
       <c r="BB68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T69" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
       <c r="U69" t="s">
         <v>84</v>
       </c>
@@ -10164,11 +10960,32 @@
       <c r="BB69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T70" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
       <c r="U70" t="s">
         <v>84</v>
       </c>
@@ -10271,11 +11088,32 @@
       <c r="BB70" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T71" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
       <c r="U71" t="s">
         <v>84</v>
       </c>
@@ -10378,11 +11216,32 @@
       <c r="BB71" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T72" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
       <c r="U72" t="s">
         <v>84</v>
       </c>
@@ -10485,11 +11344,32 @@
       <c r="BB72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T73" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
       <c r="U73" t="s">
         <v>84</v>
       </c>
@@ -10592,11 +11472,32 @@
       <c r="BB73" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T74" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
       <c r="U74" t="s">
         <v>84</v>
       </c>
@@ -10699,11 +11600,32 @@
       <c r="BB74" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T75" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
       <c r="U75" t="s">
         <v>84</v>
       </c>
@@ -10806,11 +11728,11 @@
       <c r="BB75" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T76" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
       <c r="U76" t="s">
         <v>84</v>
       </c>
@@ -10913,11 +11835,11 @@
       <c r="BB76" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T77" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
       <c r="U77" t="s">
         <v>84</v>
       </c>
@@ -11020,11 +11942,11 @@
       <c r="BB77" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T78" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
       <c r="U78" t="s">
         <v>84</v>
       </c>
@@ -11127,11 +12049,11 @@
       <c r="BB78" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T79" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
       <c r="U79" t="s">
         <v>84</v>
       </c>
@@ -11234,11 +12156,11 @@
       <c r="BB79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T80" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
       <c r="U80" t="s">
         <v>84</v>
       </c>
@@ -11341,11 +12263,11 @@
       <c r="BB80" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T81" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U81" t="s">
         <v>84</v>
       </c>
@@ -11448,11 +12370,11 @@
       <c r="BB81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T82" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U82" t="s">
         <v>84</v>
       </c>
@@ -11555,11 +12477,11 @@
       <c r="BB82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T83" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U83" t="s">
         <v>84</v>
       </c>
@@ -11662,11 +12584,11 @@
       <c r="BB83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T84" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U84" t="s">
         <v>84</v>
       </c>
@@ -11769,11 +12691,11 @@
       <c r="BB84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T85" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U85" t="s">
         <v>84</v>
       </c>
@@ -11876,11 +12798,11 @@
       <c r="BB85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T86" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U86" t="s">
         <v>84</v>
       </c>
@@ -11983,11 +12905,11 @@
       <c r="BB86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T87" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U87" t="s">
         <v>84</v>
       </c>
@@ -12090,11 +13012,11 @@
       <c r="BB87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T88" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U88" t="s">
         <v>84</v>
       </c>
@@ -12197,11 +13119,11 @@
       <c r="BB88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T89" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U89" t="s">
         <v>84</v>
       </c>
@@ -12304,11 +13226,11 @@
       <c r="BB89" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="90" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T90" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U90" t="s">
         <v>84</v>
       </c>
@@ -12411,11 +13333,11 @@
       <c r="BB90" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T91" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U91" t="s">
         <v>84</v>
       </c>
@@ -12518,11 +13440,11 @@
       <c r="BB91" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T92" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U92" t="s">
         <v>84</v>
       </c>
@@ -12625,11 +13547,11 @@
       <c r="BB92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T93" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U93" t="s">
         <v>84</v>
       </c>
@@ -12732,11 +13654,11 @@
       <c r="BB93" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T94" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U94" t="s">
         <v>84</v>
       </c>
@@ -12839,11 +13761,11 @@
       <c r="BB94" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T95" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U95" t="s">
         <v>84</v>
       </c>
@@ -12946,11 +13868,11 @@
       <c r="BB95" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T96" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U96" t="s">
         <v>84</v>
       </c>
@@ -13053,11 +13975,11 @@
       <c r="BB96" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="97" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T97" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U97" t="s">
         <v>84</v>
       </c>
@@ -13160,11 +14082,11 @@
       <c r="BB97" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T98" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U98" t="s">
         <v>84</v>
       </c>
@@ -13267,11 +14189,11 @@
       <c r="BB98" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T99" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U99" t="s">
         <v>84</v>
       </c>
@@ -13374,11 +14296,11 @@
       <c r="BB99" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="100" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T100" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U100" t="s">
         <v>84</v>
       </c>
@@ -13481,11 +14403,11 @@
       <c r="BB100" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T101" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U101" t="s">
         <v>84</v>
       </c>
@@ -13588,11 +14510,11 @@
       <c r="BB101" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="102" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T102" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U102" t="s">
         <v>84</v>
       </c>
@@ -13695,11 +14617,11 @@
       <c r="BB102" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="103" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T103" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U103" t="s">
         <v>84</v>
       </c>
@@ -13802,11 +14724,11 @@
       <c r="BB103" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="104" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T104" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U104" t="s">
         <v>84</v>
       </c>
@@ -13909,11 +14831,11 @@
       <c r="BB104" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="105" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T105" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U105" t="s">
         <v>84</v>
       </c>
@@ -14016,11 +14938,11 @@
       <c r="BB105" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="106" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T106" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U106" t="s">
         <v>84</v>
       </c>
@@ -14123,11 +15045,11 @@
       <c r="BB106" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="107" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T107" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U107" t="s">
         <v>84</v>
       </c>
@@ -14230,11 +15152,11 @@
       <c r="BB107" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="108" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T108" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U108" t="s">
         <v>84</v>
       </c>
@@ -14337,11 +15259,11 @@
       <c r="BB108" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="109" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T109" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U109" t="s">
         <v>84</v>
       </c>
@@ -14444,11 +15366,11 @@
       <c r="BB109" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="110" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T110" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U110" t="s">
         <v>84</v>
       </c>
@@ -14551,11 +15473,11 @@
       <c r="BB110" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="111" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T111" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U111" t="s">
         <v>84</v>
       </c>
@@ -14658,11 +15580,11 @@
       <c r="BB111" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="112" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T112" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U112" t="s">
         <v>84</v>
       </c>
@@ -14765,11 +15687,11 @@
       <c r="BB112" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T113" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U113" t="s">
         <v>84</v>
       </c>
@@ -14872,11 +15794,11 @@
       <c r="BB113" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="114" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T114" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U114" t="s">
         <v>84</v>
       </c>
@@ -14979,11 +15901,11 @@
       <c r="BB114" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="115" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T115" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U115" t="s">
         <v>84</v>
       </c>
@@ -15086,11 +16008,11 @@
       <c r="BB115" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="116" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T116" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U116" t="s">
         <v>84</v>
       </c>
@@ -15193,11 +16115,11 @@
       <c r="BB116" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="117" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T117" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U117" t="s">
         <v>84</v>
       </c>
@@ -15300,11 +16222,11 @@
       <c r="BB117" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="118" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T118" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U118" t="s">
         <v>84</v>
       </c>
@@ -15407,11 +16329,11 @@
       <c r="BB118" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="119" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T119" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U119" t="s">
         <v>84</v>
       </c>
@@ -15514,11 +16436,11 @@
       <c r="BB119" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="120" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T120" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U120" t="s">
         <v>84</v>
       </c>
@@ -15621,11 +16543,11 @@
       <c r="BB120" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T121" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U121" t="s">
         <v>84</v>
       </c>
@@ -15728,11 +16650,11 @@
       <c r="BB121" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="122" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T122" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U122" t="s">
         <v>84</v>
       </c>
@@ -15835,11 +16757,11 @@
       <c r="BB122" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="123" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T123" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U123" t="s">
         <v>84</v>
       </c>
@@ -15942,11 +16864,11 @@
       <c r="BB123" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="124" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T124" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U124" t="s">
         <v>84</v>
       </c>
@@ -16049,11 +16971,11 @@
       <c r="BB124" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="125" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T125" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U125" t="s">
         <v>84</v>
       </c>
@@ -16156,11 +17078,11 @@
       <c r="BB125" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="126" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T126" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U126" t="s">
         <v>84</v>
       </c>
@@ -16263,11 +17185,11 @@
       <c r="BB126" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="127" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T127" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U127" t="s">
         <v>84</v>
       </c>
@@ -16370,11 +17292,11 @@
       <c r="BB127" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="128" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T128" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U128" t="s">
         <v>84</v>
       </c>
@@ -16477,11 +17399,11 @@
       <c r="BB128" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="129" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T129" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U129" t="s">
         <v>84</v>
       </c>
@@ -16584,11 +17506,11 @@
       <c r="BB129" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="130" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T130" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U130" t="s">
         <v>84</v>
       </c>
@@ -16691,11 +17613,11 @@
       <c r="BB130" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="131" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T131" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U131" t="s">
         <v>84</v>
       </c>
@@ -16798,11 +17720,11 @@
       <c r="BB131" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="132" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T132" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U132" t="s">
         <v>84</v>
       </c>
@@ -16905,11 +17827,11 @@
       <c r="BB132" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="133" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T133" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U133" t="s">
         <v>84</v>
       </c>
@@ -17012,11 +17934,11 @@
       <c r="BB133" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="134" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T134" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U134" t="s">
         <v>84</v>
       </c>
@@ -17119,11 +18041,11 @@
       <c r="BB134" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="135" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T135" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC134" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U135" t="s">
         <v>84</v>
       </c>
@@ -17226,11 +18148,11 @@
       <c r="BB135" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T136" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC135" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U136" t="s">
         <v>84</v>
       </c>
@@ -17333,11 +18255,11 @@
       <c r="BB136" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="137" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T137" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U137" t="s">
         <v>84</v>
       </c>
@@ -17440,11 +18362,11 @@
       <c r="BB137" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="138" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T138" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U138" t="s">
         <v>84</v>
       </c>
@@ -17547,11 +18469,11 @@
       <c r="BB138" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="139" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T139" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U139" t="s">
         <v>84</v>
       </c>
@@ -17654,11 +18576,11 @@
       <c r="BB139" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="140" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T140" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U140" t="s">
         <v>84</v>
       </c>
@@ -17761,11 +18683,11 @@
       <c r="BB140" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T141" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U141" t="s">
         <v>84</v>
       </c>
@@ -17868,11 +18790,11 @@
       <c r="BB141" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="142" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T142" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U142" t="s">
         <v>84</v>
       </c>
@@ -17975,11 +18897,11 @@
       <c r="BB142" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="143" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T143" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U143" t="s">
         <v>84</v>
       </c>
@@ -18082,11 +19004,11 @@
       <c r="BB143" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="144" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T144" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U144" t="s">
         <v>84</v>
       </c>
@@ -18189,11 +19111,11 @@
       <c r="BB144" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="145" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T145" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC144" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U145" t="s">
         <v>84</v>
       </c>
@@ -18296,11 +19218,11 @@
       <c r="BB145" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="146" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T146" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC145" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U146" t="s">
         <v>84</v>
       </c>
@@ -18403,11 +19325,11 @@
       <c r="BB146" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="147" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T147" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U147" t="s">
         <v>84</v>
       </c>
@@ -18510,11 +19432,11 @@
       <c r="BB147" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="148" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T148" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC147" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U148" t="s">
         <v>84</v>
       </c>
@@ -18617,11 +19539,11 @@
       <c r="BB148" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="149" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T149" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U149" t="s">
         <v>84</v>
       </c>
@@ -18724,11 +19646,11 @@
       <c r="BB149" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="150" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T150" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC149" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U150" t="s">
         <v>84</v>
       </c>
@@ -18831,11 +19753,11 @@
       <c r="BB150" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="151" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T151" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U151" t="s">
         <v>84</v>
       </c>
@@ -18938,11 +19860,11 @@
       <c r="BB151" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="152" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T152" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC151" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U152" t="s">
         <v>84</v>
       </c>
@@ -19045,11 +19967,11 @@
       <c r="BB152" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="153" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T153" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U153" t="s">
         <v>84</v>
       </c>
@@ -19152,11 +20074,11 @@
       <c r="BB153" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="154" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T154" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC153" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U154" t="s">
         <v>84</v>
       </c>
@@ -19259,11 +20181,11 @@
       <c r="BB154" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="155" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T155" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC154" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U155" t="s">
         <v>84</v>
       </c>
@@ -19366,11 +20288,11 @@
       <c r="BB155" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="156" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T156" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC155" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U156" t="s">
         <v>84</v>
       </c>
@@ -19473,11 +20395,11 @@
       <c r="BB156" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="157" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T157" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC156" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U157" t="s">
         <v>84</v>
       </c>
@@ -19580,11 +20502,11 @@
       <c r="BB157" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="158" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T158" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC157" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U158" t="s">
         <v>84</v>
       </c>
@@ -19687,11 +20609,11 @@
       <c r="BB158" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="159" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T159" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U159" t="s">
         <v>84</v>
       </c>
@@ -19794,11 +20716,11 @@
       <c r="BB159" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="160" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T160" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U160" t="s">
         <v>84</v>
       </c>
@@ -19901,11 +20823,11 @@
       <c r="BB160" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="161" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T161" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC160" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U161" t="s">
         <v>84</v>
       </c>
@@ -20008,11 +20930,11 @@
       <c r="BB161" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="162" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T162" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC161" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U162" t="s">
         <v>84</v>
       </c>
@@ -20115,11 +21037,11 @@
       <c r="BB162" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="163" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T163" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC162" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U163" t="s">
         <v>84</v>
       </c>
@@ -20222,11 +21144,11 @@
       <c r="BB163" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="164" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T164" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC163" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U164" t="s">
         <v>84</v>
       </c>
@@ -20329,11 +21251,11 @@
       <c r="BB164" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="165" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T165" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC164" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U165" t="s">
         <v>84</v>
       </c>
@@ -20436,11 +21358,11 @@
       <c r="BB165" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="166" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T166" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC165" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U166" t="s">
         <v>84</v>
       </c>
@@ -20543,11 +21465,11 @@
       <c r="BB166" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="167" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T167" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC166" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U167" t="s">
         <v>84</v>
       </c>
@@ -20650,11 +21572,11 @@
       <c r="BB167" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="168" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T168" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U168" t="s">
         <v>84</v>
       </c>
@@ -20757,11 +21679,11 @@
       <c r="BB168" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="169" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T169" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC168" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U169" t="s">
         <v>84</v>
       </c>
@@ -20864,11 +21786,11 @@
       <c r="BB169" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="170" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T170" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC169" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U170" t="s">
         <v>84</v>
       </c>
@@ -20971,11 +21893,11 @@
       <c r="BB170" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="171" spans="20:54" x14ac:dyDescent="0.3">
-      <c r="T171" t="s">
-        <v>84</v>
-      </c>
+      <c r="BC170" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="21:55" x14ac:dyDescent="0.3">
       <c r="U171" t="s">
         <v>84</v>
       </c>
@@ -21078,67 +22000,70 @@
       <c r="BB171" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="BC171" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:R61">
-    <sortCondition ref="R3:R61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A61">
+    <sortCondition ref="A3:A61"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:R100">
+  <conditionalFormatting sqref="A3:S100">
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
@@ -21146,4 +22071,682 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDAAACA-BC72-43E2-A839-9355324D61C9}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TRIM(LOWER(A1))</f>
+        <v>ainsworth irrigation district</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">TRIM(LOWER(A2))</f>
+        <v>boise project board of control</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>bridger valley water conservancy district</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>browns creek irrigation district</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>bufordtrenton irrigation district</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>california department of water resources</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>canadian river municipal water authority</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>carbon water conservancy district</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>carlsbad irrigation district</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>casitas municipal water district</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>central arizona project</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>central arizona water conservation district</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>central irrigation district</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>central oregon irrigation district</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>central utah water conservancy district</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>chimney rock irrigation district</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>city of corpus christi</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>city of rapid city</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>coachella valley water district</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>contra costa water district</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>cottonwood creek consolidated irrigation company</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>deaver irrigation district</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>eden valley irrigation and drainage district</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>el dorado irrigation district</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>emery water conservancy district</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>farmers irrigation district</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>fort shaw irrigation district</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>frenchman valley irrigation district</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>gering irrigation district</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>goshen irrigation district</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>greenfields irrigation district</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>hammond conservancy district</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>heart mountain irrigation district</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>imperial irrigation district</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>kittitas reclamation district</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>lewiston orchards irrigation district</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>little wood river irrigation district</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>loup river public power district</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>lower powder river irrigation district</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>madera irrigation district</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>mann creek irrigation district</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>mapleton irrigation company</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>maricopa water district</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>midvale irrigation district</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>mirage flats irrigation district</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>moon lake water users association</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>newton water users association</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>ogden river water users association</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>okanogan irrigation district</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>owl creek irrigation district</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>pacificorp</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>palo verde irrigation district</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>pathfinder irrigation district</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>pershing county water conservation district</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>provo river water users association</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>reeves county water improvement district 1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>salt river valley water users association</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>san benito county water district</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>san diego county water authority</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>sanpete water conservancy district</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>shoshone irrigation district</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>sidon irrigation district</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>solano county water agency</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>solano irrigation district</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>south columbia basin irrigation district</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B73" si="1">TRIM(LOWER(A66))</f>
+        <v>truckeecarson irrigation district</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>uintah water conservancy district</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>vale oregon irrigation district</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>weber basin water conservancy district</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>weber river water users association</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>whitestone reclamation district</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>willwood irrigation district</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>yakimatieton irrigation district</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A77">
+    <sortCondition ref="A1:A77"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
+++ b/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A4E7C-69FE-4A01-86AC-C21BA608A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB0CC2-EAC4-423B-AA1C-99DA4AB89B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="364">
   <si>
     <t>United States of America</t>
   </si>
@@ -477,9 +477,6 @@
     <t>bureau of land mgt</t>
   </si>
   <si>
-    <t>bor</t>
-  </si>
-  <si>
     <t>usa department of agriculture</t>
   </si>
   <si>
@@ -1120,6 +1117,18 @@
   </si>
   <si>
     <t>yakimatieton irrigation district</t>
+  </si>
+  <si>
+    <t>usdi bor</t>
+  </si>
+  <si>
+    <t>usdi bureau land management</t>
+  </si>
+  <si>
+    <t>tribal council</t>
+  </si>
+  <si>
+    <t>tribal consortiu</t>
   </si>
 </sst>
 </file>
@@ -1315,14 +1324,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1656,22 +1658,22 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -1691,7 +1693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,21 +1723,21 @@
         <v>47</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="19"/>
       <c r="I1" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -1884,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>9</v>
@@ -2018,7 +2020,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>101</v>
@@ -2042,16 +2044,16 @@
         <v>107</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>111</v>
@@ -2063,7 +2065,7 @@
         <v>126</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>41</v>
@@ -2182,7 +2184,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>85</v>
@@ -2206,13 +2208,13 @@
         <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -2227,7 +2229,7 @@
         <v>97</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>98</v>
@@ -2355,7 +2357,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>119</v>
@@ -2366,13 +2368,13 @@
         <v>120</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>123</v>
@@ -2506,7 +2508,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -2522,13 +2524,13 @@
         <v>130</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>133</v>
@@ -2537,11 +2539,11 @@
         <v>134</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>34</v>
@@ -2670,26 +2672,26 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>141</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>36</v>
@@ -2809,29 +2811,31 @@
         <v>50</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
@@ -2950,32 +2954,34 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>140</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
@@ -3104,20 +3110,20 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
@@ -3246,11 +3252,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3382,11 +3390,11 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -3522,7 +3530,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3654,11 +3662,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3788,18 +3796,18 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3922,11 +3930,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4056,11 +4064,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4190,11 +4198,11 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4324,11 +4332,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4458,11 +4466,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4582,7 +4590,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4592,11 +4600,11 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -4730,7 +4738,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4850,7 +4858,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4864,7 +4872,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -4998,14 +5006,14 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5118,7 +5126,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5132,14 +5140,14 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5262,11 +5270,11 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5394,11 +5402,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5526,11 +5534,11 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5662,7 +5670,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -5780,7 +5788,7 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5790,11 +5798,11 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -5924,7 +5932,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -6042,7 +6050,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6054,7 +6062,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -6184,7 +6192,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -6314,7 +6322,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -6444,7 +6452,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -6574,7 +6582,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -6704,7 +6712,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6822,7 +6830,7 @@
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6834,7 +6842,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -6964,7 +6972,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7094,7 +7102,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7224,7 +7232,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7342,7 +7350,7 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7354,7 +7362,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7484,7 +7492,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7602,7 +7610,7 @@
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7614,7 +7622,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7732,7 +7740,7 @@
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7744,7 +7752,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7862,7 +7870,7 @@
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7874,7 +7882,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -8004,7 +8012,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -8134,7 +8142,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8252,7 +8260,7 @@
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8264,7 +8272,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -8382,7 +8390,7 @@
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8394,7 +8402,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -8524,7 +8532,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8654,7 +8662,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -8784,7 +8792,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -8914,7 +8922,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -9044,7 +9052,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -9174,7 +9182,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -9292,7 +9300,7 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -9304,7 +9312,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -9434,7 +9442,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -9552,7 +9560,7 @@
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9564,7 +9572,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -9694,7 +9702,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -9824,7 +9832,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -9952,7 +9960,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -10080,7 +10088,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -10208,7 +10216,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -10336,7 +10344,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -10464,7 +10472,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -10592,7 +10600,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -10720,7 +10728,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -10848,7 +10856,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -10976,7 +10984,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -11104,7 +11112,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -11232,7 +11240,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -11360,7 +11368,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -11488,7 +11496,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -11616,7 +11624,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -22088,7 +22096,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" t="str">
         <f>TRIM(LOWER(A1))</f>
@@ -22097,7 +22105,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">TRIM(LOWER(A2))</f>
@@ -22106,7 +22114,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -22115,7 +22123,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -22124,7 +22132,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -22133,7 +22141,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -22142,7 +22150,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -22151,7 +22159,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -22160,7 +22168,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -22169,7 +22177,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -22178,7 +22186,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -22187,7 +22195,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -22196,7 +22204,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -22205,7 +22213,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -22214,7 +22222,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -22223,7 +22231,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -22232,7 +22240,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -22241,7 +22249,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -22250,7 +22258,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -22259,7 +22267,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -22268,7 +22276,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -22277,7 +22285,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -22286,7 +22294,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -22295,7 +22303,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -22304,7 +22312,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -22313,7 +22321,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -22322,7 +22330,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -22331,7 +22339,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -22340,7 +22348,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -22349,7 +22357,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -22358,7 +22366,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -22367,7 +22375,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -22376,7 +22384,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -22385,7 +22393,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -22394,7 +22402,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -22403,7 +22411,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -22412,7 +22420,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -22421,7 +22429,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -22430,7 +22438,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -22439,7 +22447,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -22448,7 +22456,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -22457,7 +22465,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -22466,7 +22474,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -22475,7 +22483,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -22484,7 +22492,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -22493,7 +22501,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -22502,7 +22510,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -22511,7 +22519,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -22520,7 +22528,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -22529,7 +22537,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -22538,7 +22546,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -22547,7 +22555,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -22556,7 +22564,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -22565,7 +22573,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -22574,7 +22582,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -22583,7 +22591,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -22592,7 +22600,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -22601,7 +22609,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
@@ -22610,7 +22618,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
@@ -22619,7 +22627,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -22628,7 +22636,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -22637,7 +22645,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -22646,7 +22654,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
@@ -22655,7 +22663,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -22664,7 +22672,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -22673,7 +22681,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B73" si="1">TRIM(LOWER(A66))</f>
@@ -22682,7 +22690,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
@@ -22691,7 +22699,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
@@ -22700,7 +22708,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
@@ -22709,7 +22717,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
@@ -22718,7 +22726,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
@@ -22727,7 +22735,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
@@ -22736,7 +22744,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>

--- a/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
+++ b/5_CustomFunctions/OwnerClassification/Notes_OwnerClassification.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB0CC2-EAC4-423B-AA1C-99DA4AB89B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6286F8-DE97-4FA7-BE30-ECAD629E4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
     <sheet name="TrackWordsByGroup" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6354" uniqueCount="360">
   <si>
     <t>United States of America</t>
   </si>
@@ -681,225 +680,6 @@
     <t>Reclamation Contractor</t>
   </si>
   <si>
-    <t>Ainsworth Irrigation District</t>
-  </si>
-  <si>
-    <t>Boise Project Board Of Control</t>
-  </si>
-  <si>
-    <t>Bridger Valley Water Conservancy District</t>
-  </si>
-  <si>
-    <t>Browns Creek Irrigation District</t>
-  </si>
-  <si>
-    <t>Bufordtrenton Irrigation District</t>
-  </si>
-  <si>
-    <t>California Department Of Water Resources</t>
-  </si>
-  <si>
-    <t>Canadian River Municipal Water Authority</t>
-  </si>
-  <si>
-    <t>CARBON WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>Carlsbad Irrigation District</t>
-  </si>
-  <si>
-    <t>Casitas Municipal Water District</t>
-  </si>
-  <si>
-    <t>Central Arizona Project</t>
-  </si>
-  <si>
-    <t>Central Arizona Water Conservation District</t>
-  </si>
-  <si>
-    <t>Central Irrigation District</t>
-  </si>
-  <si>
-    <t>Central Oregon Irrigation District</t>
-  </si>
-  <si>
-    <t>CENTRAL UTAH WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>Chimney Rock Irrigation District</t>
-  </si>
-  <si>
-    <t>City Of Corpus Christi</t>
-  </si>
-  <si>
-    <t>City Of Rapid City</t>
-  </si>
-  <si>
-    <t>Coachella Valley Water District</t>
-  </si>
-  <si>
-    <t>Contra Costa Water District</t>
-  </si>
-  <si>
-    <t>COTTONWOOD CREEK CONSOLIDATED IRRIGATION COMPANY</t>
-  </si>
-  <si>
-    <t>Deaver Irrigation District</t>
-  </si>
-  <si>
-    <t>Eden Valley Irrigation And Drainage District</t>
-  </si>
-  <si>
-    <t>El Dorado Irrigation District</t>
-  </si>
-  <si>
-    <t>EMERY WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>Farmers Irrigation District</t>
-  </si>
-  <si>
-    <t>Fort Shaw Irrigation District</t>
-  </si>
-  <si>
-    <t>Frenchman Valley Irrigation District</t>
-  </si>
-  <si>
-    <t>Gering Irrigation District</t>
-  </si>
-  <si>
-    <t>Goshen Irrigation District</t>
-  </si>
-  <si>
-    <t>Greenfields Irrigation District</t>
-  </si>
-  <si>
-    <t>Hammond Conservancy District</t>
-  </si>
-  <si>
-    <t>Heart Mountain Irrigation District</t>
-  </si>
-  <si>
-    <t>Imperial Irrigation District</t>
-  </si>
-  <si>
-    <t>Kittitas Reclamation District</t>
-  </si>
-  <si>
-    <t>Lewiston Orchards Irrigation District</t>
-  </si>
-  <si>
-    <t>Little Wood River Irrigation District</t>
-  </si>
-  <si>
-    <t>Loup River Public Power District</t>
-  </si>
-  <si>
-    <t>Lower Powder River Irrigation District</t>
-  </si>
-  <si>
-    <t>Madera Irrigation District</t>
-  </si>
-  <si>
-    <t>Mann Creek Irrigation District</t>
-  </si>
-  <si>
-    <t>MAPLETON IRRIGATION COMPANY</t>
-  </si>
-  <si>
-    <t>Maricopa Water District</t>
-  </si>
-  <si>
-    <t>Midvale Irrigation District</t>
-  </si>
-  <si>
-    <t>Mirage Flats Irrigation District</t>
-  </si>
-  <si>
-    <t>MOON LAKE WATER USERS ASSOCIATION</t>
-  </si>
-  <si>
-    <t>NEWTON WATER USERS ASSOCIATION</t>
-  </si>
-  <si>
-    <t>OGDEN RIVER WATER USERS ASSOCIATION</t>
-  </si>
-  <si>
-    <t>Okanogan Irrigation District</t>
-  </si>
-  <si>
-    <t>Owl Creek Irrigation District</t>
-  </si>
-  <si>
-    <t>Pacificorp</t>
-  </si>
-  <si>
-    <t>Palo Verde Irrigation District</t>
-  </si>
-  <si>
-    <t>Pathfinder Irrigation District</t>
-  </si>
-  <si>
-    <t>Pershing County Water Conservation District</t>
-  </si>
-  <si>
-    <t>PROVO RIVER WATER USERS ASSOCIATION</t>
-  </si>
-  <si>
-    <t>Reeves County Water Improvement District 1</t>
-  </si>
-  <si>
-    <t>Salt River Valley Water Users Association</t>
-  </si>
-  <si>
-    <t>San Benito County Water District</t>
-  </si>
-  <si>
-    <t>San Diego County Water Authority</t>
-  </si>
-  <si>
-    <t>SANPETE WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>Shoshone Irrigation District</t>
-  </si>
-  <si>
-    <t>Sidon Irrigation District</t>
-  </si>
-  <si>
-    <t>Solano County Water Agency</t>
-  </si>
-  <si>
-    <t>Solano Irrigation District</t>
-  </si>
-  <si>
-    <t>South Columbia Basin Irrigation District</t>
-  </si>
-  <si>
-    <t>Truckeecarson Irrigation District</t>
-  </si>
-  <si>
-    <t>UINTAH WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>Vale Oregon Irrigation District</t>
-  </si>
-  <si>
-    <t>WEBER BASIN WATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>WEBER RIVER WATER USERS ASSOCIATION</t>
-  </si>
-  <si>
-    <t>Whitestone Reclamation District</t>
-  </si>
-  <si>
-    <t>Willwood Irrigation District</t>
-  </si>
-  <si>
-    <t>Yakimatieton Irrigation District</t>
-  </si>
-  <si>
     <t>ainsworth irrigation district</t>
   </si>
   <si>
@@ -1129,6 +909,213 @@
   </si>
   <si>
     <t>tribal consortiu</t>
+  </si>
+  <si>
+    <t>army</t>
+  </si>
+  <si>
+    <t>united states army core of engineers</t>
+  </si>
+  <si>
+    <t>united states army engineer district</t>
+  </si>
+  <si>
+    <t>department of agriculture</t>
+  </si>
+  <si>
+    <t>department of agricultureforest service</t>
+  </si>
+  <si>
+    <t>united states department of the interior</t>
+  </si>
+  <si>
+    <t>united states dept of int</t>
+  </si>
+  <si>
+    <t>united states enviomental protection agency</t>
+  </si>
+  <si>
+    <t>united states enviormental protection agency</t>
+  </si>
+  <si>
+    <t>united states environmental protection agcy</t>
+  </si>
+  <si>
+    <t>united states environmental protection agenc</t>
+  </si>
+  <si>
+    <t>united states fish wildlife</t>
+  </si>
+  <si>
+    <t>united states government</t>
+  </si>
+  <si>
+    <t>united states geological survey</t>
+  </si>
+  <si>
+    <t>united states</t>
+  </si>
+  <si>
+    <t>corps of army</t>
+  </si>
+  <si>
+    <t>army depot</t>
+  </si>
+  <si>
+    <t>natl guard</t>
+  </si>
+  <si>
+    <t>ntl guard</t>
+  </si>
+  <si>
+    <t>bureau of ind affair</t>
+  </si>
+  <si>
+    <t>bureau of land</t>
+  </si>
+  <si>
+    <t>bureau of sport fisheries</t>
+  </si>
+  <si>
+    <t>bureau of sport fisheries and wildlife</t>
+  </si>
+  <si>
+    <t>bureau of sports fisheries wildlife</t>
+  </si>
+  <si>
+    <t>reclamation</t>
+  </si>
+  <si>
+    <t>us bureau of land</t>
+  </si>
+  <si>
+    <t>coast guard</t>
+  </si>
+  <si>
+    <t>corp of engineer</t>
+  </si>
+  <si>
+    <t>corp of engineers</t>
+  </si>
+  <si>
+    <t>us dept agriculture</t>
+  </si>
+  <si>
+    <t>us dept</t>
+  </si>
+  <si>
+    <t>us border</t>
+  </si>
+  <si>
+    <t>us bureau</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>usdi</t>
+  </si>
+  <si>
+    <t>us department of agriculture</t>
+  </si>
+  <si>
+    <t>us department of fish wildlife</t>
+  </si>
+  <si>
+    <t>us dept fish</t>
+  </si>
+  <si>
+    <t>us dept of agric</t>
+  </si>
+  <si>
+    <t>us dept of army</t>
+  </si>
+  <si>
+    <t>us dept of fish</t>
+  </si>
+  <si>
+    <t>enviromental protection agency</t>
+  </si>
+  <si>
+    <t>us forest</t>
+  </si>
+  <si>
+    <t>us fws</t>
+  </si>
+  <si>
+    <t>us geologicial survey</t>
+  </si>
+  <si>
+    <t>us general</t>
+  </si>
+  <si>
+    <t>us govt</t>
+  </si>
+  <si>
+    <t>marine corp</t>
+  </si>
+  <si>
+    <t>park service</t>
+  </si>
+  <si>
+    <t>us naval</t>
+  </si>
+  <si>
+    <t>us navy</t>
+  </si>
+  <si>
+    <t>us post</t>
+  </si>
+  <si>
+    <t>us postal</t>
+  </si>
+  <si>
+    <t>land management</t>
+  </si>
+  <si>
+    <t>usair force</t>
+  </si>
+  <si>
+    <t>usagriculture department</t>
+  </si>
+  <si>
+    <t>states of america</t>
+  </si>
+  <si>
+    <t>of reclamation</t>
+  </si>
+  <si>
+    <t>of land management</t>
+  </si>
+  <si>
+    <t>usdefense department</t>
+  </si>
+  <si>
+    <t>usdepartment</t>
+  </si>
+  <si>
+    <t>usdept of agriculture</t>
+  </si>
+  <si>
+    <t>fish hatchery</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>utitlities</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>investments</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>holdings</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1311,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1352,9 +1346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1392,7 +1386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1498,7 +1492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1640,7 +1634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1689,11 +1683,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF9ACB-9E54-49DA-868E-41FC519C5A68}">
-  <dimension ref="A1:BC198"/>
+  <dimension ref="A1:BB198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,14 +1705,14 @@
     <col min="11" max="11" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.6640625" customWidth="1"/>
     <col min="16" max="16" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
@@ -1748,6 +1742,9 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="22"/>
+      <c r="T1" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="U1" s="6" t="s">
         <v>84</v>
       </c>
@@ -1850,11 +1847,8 @@
       <c r="BB1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BC1" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1912,6 +1906,9 @@
       <c r="S2" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="T2" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="U2" s="10" t="s">
         <v>84</v>
       </c>
@@ -2014,11 +2011,8 @@
       <c r="BB2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BC2" s="10" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -2050,10 +2044,10 @@
         <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>111</v>
@@ -2065,7 +2059,7 @@
         <v>126</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>41</v>
@@ -2076,6 +2070,9 @@
       <c r="S3" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
       <c r="U3" t="s">
         <v>84</v>
       </c>
@@ -2178,11 +2175,8 @@
       <c r="BB3" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>132</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -2229,7 +2223,7 @@
         <v>97</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>98</v>
@@ -2240,6 +2234,9 @@
       <c r="S4" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
       <c r="U4" t="s">
         <v>84</v>
       </c>
@@ -2342,11 +2339,8 @@
       <c r="BB4" t="s">
         <v>84</v>
       </c>
-      <c r="BC4" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2368,7 @@
         <v>155</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>123</v>
@@ -2389,7 +2383,7 @@
         <v>113</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>33</v>
@@ -2400,6 +2394,9 @@
       <c r="S5" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
       <c r="U5" t="s">
         <v>84</v>
       </c>
@@ -2502,11 +2499,8 @@
       <c r="BB5" t="s">
         <v>84</v>
       </c>
-      <c r="BC5" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>149</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>133</v>
@@ -2541,17 +2535,24 @@
       <c r="N6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
       <c r="U6" t="s">
         <v>84</v>
       </c>
@@ -2654,11 +2655,8 @@
       <c r="BB6" t="s">
         <v>84</v>
       </c>
-      <c r="BC6" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -2666,11 +2664,15 @@
       <c r="C7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>185</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>139</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>150</v>
@@ -2689,17 +2691,24 @@
       <c r="N7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="P7" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="S7" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
       <c r="U7" t="s">
         <v>84</v>
       </c>
@@ -2802,31 +2811,30 @@
       <c r="BB7" t="s">
         <v>84</v>
       </c>
-      <c r="BC7" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>289</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>94</v>
@@ -2837,15 +2845,22 @@
       <c r="N8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="P8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
       <c r="U8" t="s">
         <v>84</v>
       </c>
@@ -2948,31 +2963,30 @@
       <c r="BB8" t="s">
         <v>84</v>
       </c>
-      <c r="BC8" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>140</v>
@@ -2983,15 +2997,20 @@
       <c r="N9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="P9" s="1" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
       <c r="U9" t="s">
         <v>84</v>
       </c>
@@ -3094,46 +3113,52 @@
       <c r="BB9" t="s">
         <v>84</v>
       </c>
-      <c r="BC9" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>156</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
       <c r="U10" t="s">
         <v>84</v>
       </c>
@@ -3236,42 +3261,48 @@
       <c r="BB10" t="s">
         <v>84</v>
       </c>
-      <c r="BC10" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
       <c r="U11" t="s">
         <v>84</v>
       </c>
@@ -3374,40 +3405,46 @@
       <c r="BB11" t="s">
         <v>84</v>
       </c>
-      <c r="BC11" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
       <c r="U12" t="s">
         <v>84</v>
       </c>
@@ -3510,40 +3547,46 @@
       <c r="BB12" t="s">
         <v>84</v>
       </c>
-      <c r="BC12" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
       <c r="U13" t="s">
         <v>84</v>
       </c>
@@ -3646,38 +3689,46 @@
       <c r="BB13" t="s">
         <v>84</v>
       </c>
-      <c r="BC13" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
       <c r="U14" t="s">
         <v>84</v>
       </c>
@@ -3780,38 +3831,46 @@
       <c r="BB14" t="s">
         <v>84</v>
       </c>
-      <c r="BC14" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q15" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
+      <c r="T15" t="s">
+        <v>84</v>
+      </c>
       <c r="U15" t="s">
         <v>84</v>
       </c>
@@ -3914,38 +3973,42 @@
       <c r="BB15" t="s">
         <v>84</v>
       </c>
-      <c r="BC15" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
       <c r="U16" t="s">
         <v>84</v>
       </c>
@@ -4048,38 +4111,42 @@
       <c r="BB16" t="s">
         <v>84</v>
       </c>
-      <c r="BC16" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
       <c r="U17" t="s">
         <v>84</v>
       </c>
@@ -4182,38 +4249,40 @@
       <c r="BB17" t="s">
         <v>84</v>
       </c>
-      <c r="BC17" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
+      <c r="T18" t="s">
+        <v>84</v>
+      </c>
       <c r="U18" t="s">
         <v>84</v>
       </c>
@@ -4316,38 +4385,40 @@
       <c r="BB18" t="s">
         <v>84</v>
       </c>
-      <c r="BC18" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
       <c r="U19" t="s">
         <v>84</v>
       </c>
@@ -4450,38 +4521,40 @@
       <c r="BB19" t="s">
         <v>84</v>
       </c>
-      <c r="BC19" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
+      <c r="T20" t="s">
+        <v>84</v>
+      </c>
       <c r="U20" t="s">
         <v>84</v>
       </c>
@@ -4584,38 +4657,40 @@
       <c r="BB20" t="s">
         <v>84</v>
       </c>
-      <c r="BC20" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
       <c r="U21" t="s">
         <v>84</v>
       </c>
@@ -4718,11 +4793,8 @@
       <c r="BB21" t="s">
         <v>84</v>
       </c>
-      <c r="BC21" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -4734,22 +4806,25 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
+      <c r="T22" t="s">
+        <v>84</v>
+      </c>
       <c r="U22" t="s">
         <v>84</v>
       </c>
@@ -4852,11 +4927,8 @@
       <c r="BB22" t="s">
         <v>84</v>
       </c>
-      <c r="BC22" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>147</v>
       </c>
@@ -4868,22 +4940,25 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="3" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
+      <c r="T23" t="s">
+        <v>84</v>
+      </c>
       <c r="U23" t="s">
         <v>84</v>
       </c>
@@ -4986,11 +5061,8 @@
       <c r="BB23" t="s">
         <v>84</v>
       </c>
-      <c r="BC23" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5002,22 +5074,25 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="3" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
+      <c r="T24" t="s">
+        <v>84</v>
+      </c>
       <c r="U24" t="s">
         <v>84</v>
       </c>
@@ -5120,11 +5195,8 @@
       <c r="BB24" t="s">
         <v>84</v>
       </c>
-      <c r="BC24" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
@@ -5136,22 +5208,25 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="3" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
+      <c r="T25" t="s">
+        <v>84</v>
+      </c>
       <c r="U25" t="s">
         <v>84</v>
       </c>
@@ -5254,11 +5329,8 @@
       <c r="BB25" t="s">
         <v>84</v>
       </c>
-      <c r="BC25" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -5270,20 +5342,25 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
+      <c r="T26" t="s">
+        <v>84</v>
+      </c>
       <c r="U26" t="s">
         <v>84</v>
       </c>
@@ -5386,11 +5463,8 @@
       <c r="BB26" t="s">
         <v>84</v>
       </c>
-      <c r="BC26" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -5402,20 +5476,25 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
+      <c r="T27" t="s">
+        <v>84</v>
+      </c>
       <c r="U27" t="s">
         <v>84</v>
       </c>
@@ -5518,11 +5597,8 @@
       <c r="BB27" t="s">
         <v>84</v>
       </c>
-      <c r="BC27" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -5534,20 +5610,25 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
+      <c r="T28" t="s">
+        <v>84</v>
+      </c>
       <c r="U28" t="s">
         <v>84</v>
       </c>
@@ -5650,11 +5731,8 @@
       <c r="BB28" t="s">
         <v>84</v>
       </c>
-      <c r="BC28" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -5666,20 +5744,25 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="3" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
+      <c r="T29" t="s">
+        <v>84</v>
+      </c>
       <c r="U29" t="s">
         <v>84</v>
       </c>
@@ -5782,11 +5865,8 @@
       <c r="BB29" t="s">
         <v>84</v>
       </c>
-      <c r="BC29" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>168</v>
       </c>
@@ -5798,20 +5878,25 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="3" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
+      <c r="T30" t="s">
+        <v>84</v>
+      </c>
       <c r="U30" t="s">
         <v>84</v>
       </c>
@@ -5914,11 +5999,8 @@
       <c r="BB30" t="s">
         <v>84</v>
       </c>
-      <c r="BC30" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -5929,19 +6011,26 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
       <c r="U31" t="s">
         <v>84</v>
       </c>
@@ -6044,11 +6133,8 @@
       <c r="BB31" t="s">
         <v>84</v>
       </c>
-      <c r="BC31" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>170</v>
       </c>
@@ -6059,19 +6145,26 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
       <c r="U32" t="s">
         <v>84</v>
       </c>
@@ -6174,11 +6267,8 @@
       <c r="BB32" t="s">
         <v>84</v>
       </c>
-      <c r="BC32" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -6189,19 +6279,26 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
       <c r="U33" t="s">
         <v>84</v>
       </c>
@@ -6304,11 +6401,8 @@
       <c r="BB33" t="s">
         <v>84</v>
       </c>
-      <c r="BC33" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -6319,10 +6413,12 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -6332,6 +6428,9 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
       <c r="U34" t="s">
         <v>84</v>
       </c>
@@ -6434,11 +6533,8 @@
       <c r="BB34" t="s">
         <v>84</v>
       </c>
-      <c r="BC34" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -6449,10 +6545,12 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -6462,6 +6560,9 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
+      <c r="T35" t="s">
+        <v>84</v>
+      </c>
       <c r="U35" t="s">
         <v>84</v>
       </c>
@@ -6564,11 +6665,8 @@
       <c r="BB35" t="s">
         <v>84</v>
       </c>
-      <c r="BC35" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -6579,10 +6677,12 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -6592,6 +6692,9 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
+      <c r="T36" t="s">
+        <v>84</v>
+      </c>
       <c r="U36" t="s">
         <v>84</v>
       </c>
@@ -6694,13 +6797,10 @@
       <c r="BB36" t="s">
         <v>84</v>
       </c>
-      <c r="BC36" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6709,10 +6809,12 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6722,6 +6824,9 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
+      <c r="T37" t="s">
+        <v>84</v>
+      </c>
       <c r="U37" t="s">
         <v>84</v>
       </c>
@@ -6824,13 +6929,10 @@
       <c r="BB37" t="s">
         <v>84</v>
       </c>
-      <c r="BC37" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6839,10 +6941,12 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -6852,6 +6956,9 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
+      <c r="T38" t="s">
+        <v>84</v>
+      </c>
       <c r="U38" t="s">
         <v>84</v>
       </c>
@@ -6954,13 +7061,10 @@
       <c r="BB38" t="s">
         <v>84</v>
       </c>
-      <c r="BC38" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6969,10 +7073,12 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -6982,6 +7088,9 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
+      <c r="T39" t="s">
+        <v>84</v>
+      </c>
       <c r="U39" t="s">
         <v>84</v>
       </c>
@@ -7084,13 +7193,10 @@
       <c r="BB39" t="s">
         <v>84</v>
       </c>
-      <c r="BC39" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7099,10 +7205,12 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7112,6 +7220,9 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
+      <c r="T40" t="s">
+        <v>84</v>
+      </c>
       <c r="U40" t="s">
         <v>84</v>
       </c>
@@ -7214,13 +7325,10 @@
       <c r="BB40" t="s">
         <v>84</v>
       </c>
-      <c r="BC40" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7229,10 +7337,12 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7242,6 +7352,9 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
+      <c r="T41" t="s">
+        <v>84</v>
+      </c>
       <c r="U41" t="s">
         <v>84</v>
       </c>
@@ -7344,13 +7457,10 @@
       <c r="BB41" t="s">
         <v>84</v>
       </c>
-      <c r="BC41" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7359,10 +7469,12 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7372,6 +7484,9 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
+      <c r="T42" t="s">
+        <v>84</v>
+      </c>
       <c r="U42" t="s">
         <v>84</v>
       </c>
@@ -7474,13 +7589,10 @@
       <c r="BB42" t="s">
         <v>84</v>
       </c>
-      <c r="BC42" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7489,10 +7601,12 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7502,6 +7616,9 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
+      <c r="T43" t="s">
+        <v>84</v>
+      </c>
       <c r="U43" t="s">
         <v>84</v>
       </c>
@@ -7604,13 +7721,10 @@
       <c r="BB43" t="s">
         <v>84</v>
       </c>
-      <c r="BC43" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7619,10 +7733,12 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7632,6 +7748,9 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
       <c r="U44" t="s">
         <v>84</v>
       </c>
@@ -7734,13 +7853,10 @@
       <c r="BB44" t="s">
         <v>84</v>
       </c>
-      <c r="BC44" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7749,10 +7865,12 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7762,6 +7880,9 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
+      <c r="T45" t="s">
+        <v>84</v>
+      </c>
       <c r="U45" t="s">
         <v>84</v>
       </c>
@@ -7864,13 +7985,10 @@
       <c r="BB45" t="s">
         <v>84</v>
       </c>
-      <c r="BC45" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7879,10 +7997,12 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7892,6 +8012,9 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
+      <c r="T46" t="s">
+        <v>84</v>
+      </c>
       <c r="U46" t="s">
         <v>84</v>
       </c>
@@ -7994,13 +8117,10 @@
       <c r="BB46" t="s">
         <v>84</v>
       </c>
-      <c r="BC46" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8012,7 +8132,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -8022,6 +8142,9 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
       <c r="U47" t="s">
         <v>84</v>
       </c>
@@ -8124,13 +8247,10 @@
       <c r="BB47" t="s">
         <v>84</v>
       </c>
-      <c r="BC47" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -8142,7 +8262,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8152,6 +8272,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
+      <c r="T48" t="s">
+        <v>84</v>
+      </c>
       <c r="U48" t="s">
         <v>84</v>
       </c>
@@ -8254,13 +8377,10 @@
       <c r="BB48" t="s">
         <v>84</v>
       </c>
-      <c r="BC48" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8272,7 +8392,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -8282,6 +8402,9 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
+      <c r="T49" t="s">
+        <v>84</v>
+      </c>
       <c r="U49" t="s">
         <v>84</v>
       </c>
@@ -8384,13 +8507,10 @@
       <c r="BB49" t="s">
         <v>84</v>
       </c>
-      <c r="BC49" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8402,7 +8522,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -8412,6 +8532,9 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
+      <c r="T50" t="s">
+        <v>84</v>
+      </c>
       <c r="U50" t="s">
         <v>84</v>
       </c>
@@ -8514,13 +8637,10 @@
       <c r="BB50" t="s">
         <v>84</v>
       </c>
-      <c r="BC50" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8532,7 +8652,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8542,6 +8662,9 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
+      <c r="T51" t="s">
+        <v>84</v>
+      </c>
       <c r="U51" t="s">
         <v>84</v>
       </c>
@@ -8644,13 +8767,10 @@
       <c r="BB51" t="s">
         <v>84</v>
       </c>
-      <c r="BC51" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -8662,7 +8782,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -8672,6 +8792,9 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
+      <c r="T52" t="s">
+        <v>84</v>
+      </c>
       <c r="U52" t="s">
         <v>84</v>
       </c>
@@ -8774,13 +8897,10 @@
       <c r="BB52" t="s">
         <v>84</v>
       </c>
-      <c r="BC52" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -8792,7 +8912,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -8802,6 +8922,9 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
+      <c r="T53" t="s">
+        <v>84</v>
+      </c>
       <c r="U53" t="s">
         <v>84</v>
       </c>
@@ -8904,13 +9027,10 @@
       <c r="BB53" t="s">
         <v>84</v>
       </c>
-      <c r="BC53" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -8922,7 +9042,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -8932,6 +9052,9 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
+      <c r="T54" t="s">
+        <v>84</v>
+      </c>
       <c r="U54" t="s">
         <v>84</v>
       </c>
@@ -9034,13 +9157,10 @@
       <c r="BB54" t="s">
         <v>84</v>
       </c>
-      <c r="BC54" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -9052,7 +9172,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -9062,6 +9182,9 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
+      <c r="T55" t="s">
+        <v>84</v>
+      </c>
       <c r="U55" t="s">
         <v>84</v>
       </c>
@@ -9164,13 +9287,10 @@
       <c r="BB55" t="s">
         <v>84</v>
       </c>
-      <c r="BC55" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -9182,7 +9302,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -9192,6 +9312,9 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
+      <c r="T56" t="s">
+        <v>84</v>
+      </c>
       <c r="U56" t="s">
         <v>84</v>
       </c>
@@ -9294,13 +9417,10 @@
       <c r="BB56" t="s">
         <v>84</v>
       </c>
-      <c r="BC56" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -9312,7 +9432,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -9322,6 +9442,9 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
+      <c r="T57" t="s">
+        <v>84</v>
+      </c>
       <c r="U57" t="s">
         <v>84</v>
       </c>
@@ -9424,13 +9547,10 @@
       <c r="BB57" t="s">
         <v>84</v>
       </c>
-      <c r="BC57" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -9442,7 +9562,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -9452,6 +9572,9 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
+      <c r="T58" t="s">
+        <v>84</v>
+      </c>
       <c r="U58" t="s">
         <v>84</v>
       </c>
@@ -9554,13 +9677,10 @@
       <c r="BB58" t="s">
         <v>84</v>
       </c>
-      <c r="BC58" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9572,7 +9692,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -9582,6 +9702,9 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
+      <c r="T59" t="s">
+        <v>84</v>
+      </c>
       <c r="U59" t="s">
         <v>84</v>
       </c>
@@ -9684,13 +9807,10 @@
       <c r="BB59" t="s">
         <v>84</v>
       </c>
-      <c r="BC59" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -9702,7 +9822,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -9712,6 +9832,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
+      <c r="T60" t="s">
+        <v>84</v>
+      </c>
       <c r="U60" t="s">
         <v>84</v>
       </c>
@@ -9814,13 +9937,10 @@
       <c r="BB60" t="s">
         <v>84</v>
       </c>
-      <c r="BC60" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -9832,7 +9952,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -9842,6 +9962,9 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
+      <c r="T61" t="s">
+        <v>84</v>
+      </c>
       <c r="U61" t="s">
         <v>84</v>
       </c>
@@ -9944,12 +10067,11 @@
       <c r="BB61" t="s">
         <v>84</v>
       </c>
-      <c r="BC61" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -9960,7 +10082,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -9970,6 +10092,9 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
+      <c r="T62" t="s">
+        <v>84</v>
+      </c>
       <c r="U62" t="s">
         <v>84</v>
       </c>
@@ -10072,12 +10197,11 @@
       <c r="BB62" t="s">
         <v>84</v>
       </c>
-      <c r="BC62" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -10088,7 +10212,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -10098,6 +10222,9 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
+      <c r="T63" t="s">
+        <v>84</v>
+      </c>
       <c r="U63" t="s">
         <v>84</v>
       </c>
@@ -10200,12 +10327,11 @@
       <c r="BB63" t="s">
         <v>84</v>
       </c>
-      <c r="BC63" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -10216,7 +10342,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -10226,6 +10352,9 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
+      <c r="T64" t="s">
+        <v>84</v>
+      </c>
       <c r="U64" t="s">
         <v>84</v>
       </c>
@@ -10328,12 +10457,11 @@
       <c r="BB64" t="s">
         <v>84</v>
       </c>
-      <c r="BC64" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -10344,7 +10472,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -10354,6 +10482,9 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
+      <c r="T65" t="s">
+        <v>84</v>
+      </c>
       <c r="U65" t="s">
         <v>84</v>
       </c>
@@ -10456,12 +10587,11 @@
       <c r="BB65" t="s">
         <v>84</v>
       </c>
-      <c r="BC65" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -10472,7 +10602,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -10482,6 +10612,9 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
+      <c r="T66" t="s">
+        <v>84</v>
+      </c>
       <c r="U66" t="s">
         <v>84</v>
       </c>
@@ -10584,12 +10717,11 @@
       <c r="BB66" t="s">
         <v>84</v>
       </c>
-      <c r="BC66" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -10600,7 +10732,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -10610,6 +10742,9 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
+      <c r="T67" t="s">
+        <v>84</v>
+      </c>
       <c r="U67" t="s">
         <v>84</v>
       </c>
@@ -10712,11 +10847,8 @@
       <c r="BB67" t="s">
         <v>84</v>
       </c>
-      <c r="BC67" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -10728,7 +10860,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -10738,6 +10870,9 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
+      <c r="T68" t="s">
+        <v>84</v>
+      </c>
       <c r="U68" t="s">
         <v>84</v>
       </c>
@@ -10840,11 +10975,8 @@
       <c r="BB68" t="s">
         <v>84</v>
       </c>
-      <c r="BC68" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -10856,7 +10988,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -10866,6 +10998,9 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
+      <c r="T69" t="s">
+        <v>84</v>
+      </c>
       <c r="U69" t="s">
         <v>84</v>
       </c>
@@ -10968,11 +11103,8 @@
       <c r="BB69" t="s">
         <v>84</v>
       </c>
-      <c r="BC69" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -10984,7 +11116,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -10994,6 +11126,9 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
+      <c r="T70" t="s">
+        <v>84</v>
+      </c>
       <c r="U70" t="s">
         <v>84</v>
       </c>
@@ -11096,11 +11231,8 @@
       <c r="BB70" t="s">
         <v>84</v>
       </c>
-      <c r="BC70" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -11112,7 +11244,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -11122,6 +11254,9 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
+      <c r="T71" t="s">
+        <v>84</v>
+      </c>
       <c r="U71" t="s">
         <v>84</v>
       </c>
@@ -11224,11 +11359,8 @@
       <c r="BB71" t="s">
         <v>84</v>
       </c>
-      <c r="BC71" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -11240,7 +11372,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -11250,6 +11382,9 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
+      <c r="T72" t="s">
+        <v>84</v>
+      </c>
       <c r="U72" t="s">
         <v>84</v>
       </c>
@@ -11352,11 +11487,8 @@
       <c r="BB72" t="s">
         <v>84</v>
       </c>
-      <c r="BC72" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -11368,7 +11500,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -11378,6 +11510,9 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
+      <c r="T73" t="s">
+        <v>84</v>
+      </c>
       <c r="U73" t="s">
         <v>84</v>
       </c>
@@ -11480,11 +11615,8 @@
       <c r="BB73" t="s">
         <v>84</v>
       </c>
-      <c r="BC73" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -11496,7 +11628,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -11506,6 +11638,9 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
+      <c r="T74" t="s">
+        <v>84</v>
+      </c>
       <c r="U74" t="s">
         <v>84</v>
       </c>
@@ -11608,11 +11743,8 @@
       <c r="BB74" t="s">
         <v>84</v>
       </c>
-      <c r="BC74" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -11624,7 +11756,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -11634,6 +11766,9 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
+      <c r="T75" t="s">
+        <v>84</v>
+      </c>
       <c r="U75" t="s">
         <v>84</v>
       </c>
@@ -11736,11 +11871,11 @@
       <c r="BB75" t="s">
         <v>84</v>
       </c>
-      <c r="BC75" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="T76" t="s">
+        <v>84</v>
+      </c>
       <c r="U76" t="s">
         <v>84</v>
       </c>
@@ -11843,11 +11978,11 @@
       <c r="BB76" t="s">
         <v>84</v>
       </c>
-      <c r="BC76" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="T77" t="s">
+        <v>84</v>
+      </c>
       <c r="U77" t="s">
         <v>84</v>
       </c>
@@ -11950,11 +12085,11 @@
       <c r="BB77" t="s">
         <v>84</v>
       </c>
-      <c r="BC77" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="T78" t="s">
+        <v>84</v>
+      </c>
       <c r="U78" t="s">
         <v>84</v>
       </c>
@@ -12057,11 +12192,11 @@
       <c r="BB78" t="s">
         <v>84</v>
       </c>
-      <c r="BC78" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="T79" t="s">
+        <v>84</v>
+      </c>
       <c r="U79" t="s">
         <v>84</v>
       </c>
@@ -12164,11 +12299,11 @@
       <c r="BB79" t="s">
         <v>84</v>
       </c>
-      <c r="BC79" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="T80" t="s">
+        <v>84</v>
+      </c>
       <c r="U80" t="s">
         <v>84</v>
       </c>
@@ -12271,11 +12406,11 @@
       <c r="BB80" t="s">
         <v>84</v>
       </c>
-      <c r="BC80" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="81" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="81" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T81" t="s">
+        <v>84</v>
+      </c>
       <c r="U81" t="s">
         <v>84</v>
       </c>
@@ -12378,11 +12513,11 @@
       <c r="BB81" t="s">
         <v>84</v>
       </c>
-      <c r="BC81" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="82" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="82" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T82" t="s">
+        <v>84</v>
+      </c>
       <c r="U82" t="s">
         <v>84</v>
       </c>
@@ -12485,11 +12620,11 @@
       <c r="BB82" t="s">
         <v>84</v>
       </c>
-      <c r="BC82" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="83" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="83" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T83" t="s">
+        <v>84</v>
+      </c>
       <c r="U83" t="s">
         <v>84</v>
       </c>
@@ -12592,11 +12727,11 @@
       <c r="BB83" t="s">
         <v>84</v>
       </c>
-      <c r="BC83" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="84" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="84" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T84" t="s">
+        <v>84</v>
+      </c>
       <c r="U84" t="s">
         <v>84</v>
       </c>
@@ -12699,11 +12834,11 @@
       <c r="BB84" t="s">
         <v>84</v>
       </c>
-      <c r="BC84" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="85" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="85" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T85" t="s">
+        <v>84</v>
+      </c>
       <c r="U85" t="s">
         <v>84</v>
       </c>
@@ -12806,11 +12941,11 @@
       <c r="BB85" t="s">
         <v>84</v>
       </c>
-      <c r="BC85" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="86" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="86" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T86" t="s">
+        <v>84</v>
+      </c>
       <c r="U86" t="s">
         <v>84</v>
       </c>
@@ -12913,11 +13048,11 @@
       <c r="BB86" t="s">
         <v>84</v>
       </c>
-      <c r="BC86" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="87" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="87" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T87" t="s">
+        <v>84</v>
+      </c>
       <c r="U87" t="s">
         <v>84</v>
       </c>
@@ -13020,11 +13155,11 @@
       <c r="BB87" t="s">
         <v>84</v>
       </c>
-      <c r="BC87" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="88" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="88" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T88" t="s">
+        <v>84</v>
+      </c>
       <c r="U88" t="s">
         <v>84</v>
       </c>
@@ -13127,11 +13262,11 @@
       <c r="BB88" t="s">
         <v>84</v>
       </c>
-      <c r="BC88" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="89" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="89" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T89" t="s">
+        <v>84</v>
+      </c>
       <c r="U89" t="s">
         <v>84</v>
       </c>
@@ -13234,11 +13369,11 @@
       <c r="BB89" t="s">
         <v>84</v>
       </c>
-      <c r="BC89" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="90" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="90" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T90" t="s">
+        <v>84</v>
+      </c>
       <c r="U90" t="s">
         <v>84</v>
       </c>
@@ -13341,11 +13476,11 @@
       <c r="BB90" t="s">
         <v>84</v>
       </c>
-      <c r="BC90" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="91" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="91" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T91" t="s">
+        <v>84</v>
+      </c>
       <c r="U91" t="s">
         <v>84</v>
       </c>
@@ -13448,11 +13583,11 @@
       <c r="BB91" t="s">
         <v>84</v>
       </c>
-      <c r="BC91" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="92" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="92" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T92" t="s">
+        <v>84</v>
+      </c>
       <c r="U92" t="s">
         <v>84</v>
       </c>
@@ -13555,11 +13690,11 @@
       <c r="BB92" t="s">
         <v>84</v>
       </c>
-      <c r="BC92" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="93" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="93" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T93" t="s">
+        <v>84</v>
+      </c>
       <c r="U93" t="s">
         <v>84</v>
       </c>
@@ -13662,11 +13797,11 @@
       <c r="BB93" t="s">
         <v>84</v>
       </c>
-      <c r="BC93" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="94" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="94" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T94" t="s">
+        <v>84</v>
+      </c>
       <c r="U94" t="s">
         <v>84</v>
       </c>
@@ -13769,11 +13904,11 @@
       <c r="BB94" t="s">
         <v>84</v>
       </c>
-      <c r="BC94" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="95" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="95" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T95" t="s">
+        <v>84</v>
+      </c>
       <c r="U95" t="s">
         <v>84</v>
       </c>
@@ -13876,11 +14011,11 @@
       <c r="BB95" t="s">
         <v>84</v>
       </c>
-      <c r="BC95" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="96" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="96" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T96" t="s">
+        <v>84</v>
+      </c>
       <c r="U96" t="s">
         <v>84</v>
       </c>
@@ -13983,11 +14118,11 @@
       <c r="BB96" t="s">
         <v>84</v>
       </c>
-      <c r="BC96" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="97" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="97" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T97" t="s">
+        <v>84</v>
+      </c>
       <c r="U97" t="s">
         <v>84</v>
       </c>
@@ -14090,11 +14225,11 @@
       <c r="BB97" t="s">
         <v>84</v>
       </c>
-      <c r="BC97" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="98" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="98" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T98" t="s">
+        <v>84</v>
+      </c>
       <c r="U98" t="s">
         <v>84</v>
       </c>
@@ -14197,11 +14332,11 @@
       <c r="BB98" t="s">
         <v>84</v>
       </c>
-      <c r="BC98" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="99" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="99" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T99" t="s">
+        <v>84</v>
+      </c>
       <c r="U99" t="s">
         <v>84</v>
       </c>
@@ -14304,11 +14439,11 @@
       <c r="BB99" t="s">
         <v>84</v>
       </c>
-      <c r="BC99" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="100" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="100" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T100" t="s">
+        <v>84</v>
+      </c>
       <c r="U100" t="s">
         <v>84</v>
       </c>
@@ -14411,11 +14546,11 @@
       <c r="BB100" t="s">
         <v>84</v>
       </c>
-      <c r="BC100" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="101" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="101" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T101" t="s">
+        <v>84</v>
+      </c>
       <c r="U101" t="s">
         <v>84</v>
       </c>
@@ -14518,11 +14653,11 @@
       <c r="BB101" t="s">
         <v>84</v>
       </c>
-      <c r="BC101" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="102" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="102" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T102" t="s">
+        <v>84</v>
+      </c>
       <c r="U102" t="s">
         <v>84</v>
       </c>
@@ -14625,11 +14760,11 @@
       <c r="BB102" t="s">
         <v>84</v>
       </c>
-      <c r="BC102" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="103" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="103" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T103" t="s">
+        <v>84</v>
+      </c>
       <c r="U103" t="s">
         <v>84</v>
       </c>
@@ -14732,11 +14867,11 @@
       <c r="BB103" t="s">
         <v>84</v>
       </c>
-      <c r="BC103" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="104" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="104" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T104" t="s">
+        <v>84</v>
+      </c>
       <c r="U104" t="s">
         <v>84</v>
       </c>
@@ -14839,11 +14974,11 @@
       <c r="BB104" t="s">
         <v>84</v>
       </c>
-      <c r="BC104" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="105" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="105" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T105" t="s">
+        <v>84</v>
+      </c>
       <c r="U105" t="s">
         <v>84</v>
       </c>
@@ -14946,11 +15081,11 @@
       <c r="BB105" t="s">
         <v>84</v>
       </c>
-      <c r="BC105" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="106" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="106" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T106" t="s">
+        <v>84</v>
+      </c>
       <c r="U106" t="s">
         <v>84</v>
       </c>
@@ -15053,11 +15188,11 @@
       <c r="BB106" t="s">
         <v>84</v>
       </c>
-      <c r="BC106" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="107" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="107" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T107" t="s">
+        <v>84</v>
+      </c>
       <c r="U107" t="s">
         <v>84</v>
       </c>
@@ -15160,11 +15295,11 @@
       <c r="BB107" t="s">
         <v>84</v>
       </c>
-      <c r="BC107" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="108" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="108" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T108" t="s">
+        <v>84</v>
+      </c>
       <c r="U108" t="s">
         <v>84</v>
       </c>
@@ -15267,11 +15402,11 @@
       <c r="BB108" t="s">
         <v>84</v>
       </c>
-      <c r="BC108" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="109" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="109" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T109" t="s">
+        <v>84</v>
+      </c>
       <c r="U109" t="s">
         <v>84</v>
       </c>
@@ -15374,11 +15509,11 @@
       <c r="BB109" t="s">
         <v>84</v>
       </c>
-      <c r="BC109" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="110" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="110" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T110" t="s">
+        <v>84</v>
+      </c>
       <c r="U110" t="s">
         <v>84</v>
       </c>
@@ -15481,11 +15616,11 @@
       <c r="BB110" t="s">
         <v>84</v>
       </c>
-      <c r="BC110" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="111" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="111" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T111" t="s">
+        <v>84</v>
+      </c>
       <c r="U111" t="s">
         <v>84</v>
       </c>
@@ -15588,11 +15723,11 @@
       <c r="BB111" t="s">
         <v>84</v>
       </c>
-      <c r="BC111" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="112" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="112" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T112" t="s">
+        <v>84</v>
+      </c>
       <c r="U112" t="s">
         <v>84</v>
       </c>
@@ -15695,11 +15830,11 @@
       <c r="BB112" t="s">
         <v>84</v>
       </c>
-      <c r="BC112" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="113" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="113" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T113" t="s">
+        <v>84</v>
+      </c>
       <c r="U113" t="s">
         <v>84</v>
       </c>
@@ -15802,11 +15937,11 @@
       <c r="BB113" t="s">
         <v>84</v>
       </c>
-      <c r="BC113" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="114" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="114" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T114" t="s">
+        <v>84</v>
+      </c>
       <c r="U114" t="s">
         <v>84</v>
       </c>
@@ -15909,11 +16044,11 @@
       <c r="BB114" t="s">
         <v>84</v>
       </c>
-      <c r="BC114" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="115" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="115" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T115" t="s">
+        <v>84</v>
+      </c>
       <c r="U115" t="s">
         <v>84</v>
       </c>
@@ -16016,11 +16151,11 @@
       <c r="BB115" t="s">
         <v>84</v>
       </c>
-      <c r="BC115" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="116" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="116" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T116" t="s">
+        <v>84</v>
+      </c>
       <c r="U116" t="s">
         <v>84</v>
       </c>
@@ -16123,11 +16258,11 @@
       <c r="BB116" t="s">
         <v>84</v>
       </c>
-      <c r="BC116" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="117" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="117" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T117" t="s">
+        <v>84</v>
+      </c>
       <c r="U117" t="s">
         <v>84</v>
       </c>
@@ -16230,11 +16365,11 @@
       <c r="BB117" t="s">
         <v>84</v>
       </c>
-      <c r="BC117" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="118" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="118" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T118" t="s">
+        <v>84</v>
+      </c>
       <c r="U118" t="s">
         <v>84</v>
       </c>
@@ -16337,11 +16472,11 @@
       <c r="BB118" t="s">
         <v>84</v>
       </c>
-      <c r="BC118" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="119" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="119" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T119" t="s">
+        <v>84</v>
+      </c>
       <c r="U119" t="s">
         <v>84</v>
       </c>
@@ -16444,11 +16579,11 @@
       <c r="BB119" t="s">
         <v>84</v>
       </c>
-      <c r="BC119" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="120" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="120" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T120" t="s">
+        <v>84</v>
+      </c>
       <c r="U120" t="s">
         <v>84</v>
       </c>
@@ -16551,11 +16686,11 @@
       <c r="BB120" t="s">
         <v>84</v>
       </c>
-      <c r="BC120" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="121" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="121" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T121" t="s">
+        <v>84</v>
+      </c>
       <c r="U121" t="s">
         <v>84</v>
       </c>
@@ -16658,11 +16793,11 @@
       <c r="BB121" t="s">
         <v>84</v>
       </c>
-      <c r="BC121" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="122" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="122" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T122" t="s">
+        <v>84</v>
+      </c>
       <c r="U122" t="s">
         <v>84</v>
       </c>
@@ -16765,11 +16900,11 @@
       <c r="BB122" t="s">
         <v>84</v>
       </c>
-      <c r="BC122" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="123" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="123" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T123" t="s">
+        <v>84</v>
+      </c>
       <c r="U123" t="s">
         <v>84</v>
       </c>
@@ -16872,11 +17007,11 @@
       <c r="BB123" t="s">
         <v>84</v>
       </c>
-      <c r="BC123" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="124" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="124" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T124" t="s">
+        <v>84</v>
+      </c>
       <c r="U124" t="s">
         <v>84</v>
       </c>
@@ -16979,11 +17114,11 @@
       <c r="BB124" t="s">
         <v>84</v>
       </c>
-      <c r="BC124" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="125" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="125" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T125" t="s">
+        <v>84</v>
+      </c>
       <c r="U125" t="s">
         <v>84</v>
       </c>
@@ -17086,11 +17221,11 @@
       <c r="BB125" t="s">
         <v>84</v>
       </c>
-      <c r="BC125" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="126" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="126" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T126" t="s">
+        <v>84</v>
+      </c>
       <c r="U126" t="s">
         <v>84</v>
       </c>
@@ -17193,11 +17328,11 @@
       <c r="BB126" t="s">
         <v>84</v>
       </c>
-      <c r="BC126" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="127" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="127" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T127" t="s">
+        <v>84</v>
+      </c>
       <c r="U127" t="s">
         <v>84</v>
       </c>
@@ -17300,11 +17435,11 @@
       <c r="BB127" t="s">
         <v>84</v>
       </c>
-      <c r="BC127" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="128" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="128" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T128" t="s">
+        <v>84</v>
+      </c>
       <c r="U128" t="s">
         <v>84</v>
       </c>
@@ -17407,11 +17542,11 @@
       <c r="BB128" t="s">
         <v>84</v>
       </c>
-      <c r="BC128" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="129" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="129" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T129" t="s">
+        <v>84</v>
+      </c>
       <c r="U129" t="s">
         <v>84</v>
       </c>
@@ -17514,11 +17649,11 @@
       <c r="BB129" t="s">
         <v>84</v>
       </c>
-      <c r="BC129" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="130" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="130" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T130" t="s">
+        <v>84</v>
+      </c>
       <c r="U130" t="s">
         <v>84</v>
       </c>
@@ -17621,11 +17756,11 @@
       <c r="BB130" t="s">
         <v>84</v>
       </c>
-      <c r="BC130" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="131" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="131" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T131" t="s">
+        <v>84</v>
+      </c>
       <c r="U131" t="s">
         <v>84</v>
       </c>
@@ -17728,11 +17863,11 @@
       <c r="BB131" t="s">
         <v>84</v>
       </c>
-      <c r="BC131" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="132" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="132" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T132" t="s">
+        <v>84</v>
+      </c>
       <c r="U132" t="s">
         <v>84</v>
       </c>
@@ -17835,11 +17970,11 @@
       <c r="BB132" t="s">
         <v>84</v>
       </c>
-      <c r="BC132" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="133" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="133" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T133" t="s">
+        <v>84</v>
+      </c>
       <c r="U133" t="s">
         <v>84</v>
       </c>
@@ -17942,11 +18077,11 @@
       <c r="BB133" t="s">
         <v>84</v>
       </c>
-      <c r="BC133" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="134" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="134" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T134" t="s">
+        <v>84</v>
+      </c>
       <c r="U134" t="s">
         <v>84</v>
       </c>
@@ -18049,11 +18184,11 @@
       <c r="BB134" t="s">
         <v>84</v>
       </c>
-      <c r="BC134" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="135" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="135" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T135" t="s">
+        <v>84</v>
+      </c>
       <c r="U135" t="s">
         <v>84</v>
       </c>
@@ -18156,11 +18291,11 @@
       <c r="BB135" t="s">
         <v>84</v>
       </c>
-      <c r="BC135" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="136" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="136" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T136" t="s">
+        <v>84</v>
+      </c>
       <c r="U136" t="s">
         <v>84</v>
       </c>
@@ -18263,11 +18398,11 @@
       <c r="BB136" t="s">
         <v>84</v>
       </c>
-      <c r="BC136" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="137" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="137" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T137" t="s">
+        <v>84</v>
+      </c>
       <c r="U137" t="s">
         <v>84</v>
       </c>
@@ -18370,11 +18505,11 @@
       <c r="BB137" t="s">
         <v>84</v>
       </c>
-      <c r="BC137" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="138" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="138" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T138" t="s">
+        <v>84</v>
+      </c>
       <c r="U138" t="s">
         <v>84</v>
       </c>
@@ -18477,11 +18612,11 @@
       <c r="BB138" t="s">
         <v>84</v>
       </c>
-      <c r="BC138" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="139" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="139" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T139" t="s">
+        <v>84</v>
+      </c>
       <c r="U139" t="s">
         <v>84</v>
       </c>
@@ -18584,11 +18719,11 @@
       <c r="BB139" t="s">
         <v>84</v>
       </c>
-      <c r="BC139" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="140" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="140" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T140" t="s">
+        <v>84</v>
+      </c>
       <c r="U140" t="s">
         <v>84</v>
       </c>
@@ -18691,11 +18826,11 @@
       <c r="BB140" t="s">
         <v>84</v>
       </c>
-      <c r="BC140" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="141" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="141" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T141" t="s">
+        <v>84</v>
+      </c>
       <c r="U141" t="s">
         <v>84</v>
       </c>
@@ -18798,11 +18933,11 @@
       <c r="BB141" t="s">
         <v>84</v>
       </c>
-      <c r="BC141" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="142" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="142" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T142" t="s">
+        <v>84</v>
+      </c>
       <c r="U142" t="s">
         <v>84</v>
       </c>
@@ -18905,11 +19040,11 @@
       <c r="BB142" t="s">
         <v>84</v>
       </c>
-      <c r="BC142" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="143" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="143" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T143" t="s">
+        <v>84</v>
+      </c>
       <c r="U143" t="s">
         <v>84</v>
       </c>
@@ -19012,11 +19147,11 @@
       <c r="BB143" t="s">
         <v>84</v>
       </c>
-      <c r="BC143" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="144" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="144" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T144" t="s">
+        <v>84</v>
+      </c>
       <c r="U144" t="s">
         <v>84</v>
       </c>
@@ -19119,11 +19254,11 @@
       <c r="BB144" t="s">
         <v>84</v>
       </c>
-      <c r="BC144" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="145" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="145" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T145" t="s">
+        <v>84</v>
+      </c>
       <c r="U145" t="s">
         <v>84</v>
       </c>
@@ -19226,11 +19361,11 @@
       <c r="BB145" t="s">
         <v>84</v>
       </c>
-      <c r="BC145" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="146" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="146" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T146" t="s">
+        <v>84</v>
+      </c>
       <c r="U146" t="s">
         <v>84</v>
       </c>
@@ -19333,11 +19468,11 @@
       <c r="BB146" t="s">
         <v>84</v>
       </c>
-      <c r="BC146" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="147" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="147" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T147" t="s">
+        <v>84</v>
+      </c>
       <c r="U147" t="s">
         <v>84</v>
       </c>
@@ -19440,11 +19575,11 @@
       <c r="BB147" t="s">
         <v>84</v>
       </c>
-      <c r="BC147" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="148" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="148" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T148" t="s">
+        <v>84</v>
+      </c>
       <c r="U148" t="s">
         <v>84</v>
       </c>
@@ -19547,11 +19682,11 @@
       <c r="BB148" t="s">
         <v>84</v>
       </c>
-      <c r="BC148" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="149" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="149" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T149" t="s">
+        <v>84</v>
+      </c>
       <c r="U149" t="s">
         <v>84</v>
       </c>
@@ -19654,11 +19789,11 @@
       <c r="BB149" t="s">
         <v>84</v>
       </c>
-      <c r="BC149" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="150" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="150" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T150" t="s">
+        <v>84</v>
+      </c>
       <c r="U150" t="s">
         <v>84</v>
       </c>
@@ -19761,11 +19896,11 @@
       <c r="BB150" t="s">
         <v>84</v>
       </c>
-      <c r="BC150" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="151" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="151" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T151" t="s">
+        <v>84</v>
+      </c>
       <c r="U151" t="s">
         <v>84</v>
       </c>
@@ -19868,11 +20003,11 @@
       <c r="BB151" t="s">
         <v>84</v>
       </c>
-      <c r="BC151" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="152" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="152" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T152" t="s">
+        <v>84</v>
+      </c>
       <c r="U152" t="s">
         <v>84</v>
       </c>
@@ -19975,11 +20110,11 @@
       <c r="BB152" t="s">
         <v>84</v>
       </c>
-      <c r="BC152" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="153" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="153" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T153" t="s">
+        <v>84</v>
+      </c>
       <c r="U153" t="s">
         <v>84</v>
       </c>
@@ -20082,11 +20217,11 @@
       <c r="BB153" t="s">
         <v>84</v>
       </c>
-      <c r="BC153" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="154" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="154" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T154" t="s">
+        <v>84</v>
+      </c>
       <c r="U154" t="s">
         <v>84</v>
       </c>
@@ -20189,11 +20324,11 @@
       <c r="BB154" t="s">
         <v>84</v>
       </c>
-      <c r="BC154" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="155" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="155" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T155" t="s">
+        <v>84</v>
+      </c>
       <c r="U155" t="s">
         <v>84</v>
       </c>
@@ -20296,11 +20431,11 @@
       <c r="BB155" t="s">
         <v>84</v>
       </c>
-      <c r="BC155" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="156" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="156" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T156" t="s">
+        <v>84</v>
+      </c>
       <c r="U156" t="s">
         <v>84</v>
       </c>
@@ -20403,11 +20538,11 @@
       <c r="BB156" t="s">
         <v>84</v>
       </c>
-      <c r="BC156" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="157" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="157" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T157" t="s">
+        <v>84</v>
+      </c>
       <c r="U157" t="s">
         <v>84</v>
       </c>
@@ -20510,11 +20645,11 @@
       <c r="BB157" t="s">
         <v>84</v>
       </c>
-      <c r="BC157" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="158" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="158" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T158" t="s">
+        <v>84</v>
+      </c>
       <c r="U158" t="s">
         <v>84</v>
       </c>
@@ -20617,11 +20752,11 @@
       <c r="BB158" t="s">
         <v>84</v>
       </c>
-      <c r="BC158" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="159" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="159" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T159" t="s">
+        <v>84</v>
+      </c>
       <c r="U159" t="s">
         <v>84</v>
       </c>
@@ -20724,11 +20859,11 @@
       <c r="BB159" t="s">
         <v>84</v>
       </c>
-      <c r="BC159" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="160" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="160" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T160" t="s">
+        <v>84</v>
+      </c>
       <c r="U160" t="s">
         <v>84</v>
       </c>
@@ -20831,11 +20966,11 @@
       <c r="BB160" t="s">
         <v>84</v>
       </c>
-      <c r="BC160" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="161" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="161" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T161" t="s">
+        <v>84</v>
+      </c>
       <c r="U161" t="s">
         <v>84</v>
       </c>
@@ -20938,11 +21073,11 @@
       <c r="BB161" t="s">
         <v>84</v>
       </c>
-      <c r="BC161" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="162" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="162" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T162" t="s">
+        <v>84</v>
+      </c>
       <c r="U162" t="s">
         <v>84</v>
       </c>
@@ -21045,11 +21180,11 @@
       <c r="BB162" t="s">
         <v>84</v>
       </c>
-      <c r="BC162" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="163" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="163" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T163" t="s">
+        <v>84</v>
+      </c>
       <c r="U163" t="s">
         <v>84</v>
       </c>
@@ -21152,11 +21287,11 @@
       <c r="BB163" t="s">
         <v>84</v>
       </c>
-      <c r="BC163" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="164" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="164" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T164" t="s">
+        <v>84</v>
+      </c>
       <c r="U164" t="s">
         <v>84</v>
       </c>
@@ -21259,11 +21394,11 @@
       <c r="BB164" t="s">
         <v>84</v>
       </c>
-      <c r="BC164" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="165" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="165" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T165" t="s">
+        <v>84</v>
+      </c>
       <c r="U165" t="s">
         <v>84</v>
       </c>
@@ -21366,11 +21501,11 @@
       <c r="BB165" t="s">
         <v>84</v>
       </c>
-      <c r="BC165" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="166" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="166" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T166" t="s">
+        <v>84</v>
+      </c>
       <c r="U166" t="s">
         <v>84</v>
       </c>
@@ -21473,11 +21608,11 @@
       <c r="BB166" t="s">
         <v>84</v>
       </c>
-      <c r="BC166" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="167" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="167" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T167" t="s">
+        <v>84</v>
+      </c>
       <c r="U167" t="s">
         <v>84</v>
       </c>
@@ -21580,11 +21715,11 @@
       <c r="BB167" t="s">
         <v>84</v>
       </c>
-      <c r="BC167" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="168" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="168" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T168" t="s">
+        <v>84</v>
+      </c>
       <c r="U168" t="s">
         <v>84</v>
       </c>
@@ -21687,11 +21822,11 @@
       <c r="BB168" t="s">
         <v>84</v>
       </c>
-      <c r="BC168" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="169" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="169" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T169" t="s">
+        <v>84</v>
+      </c>
       <c r="U169" t="s">
         <v>84</v>
       </c>
@@ -21794,11 +21929,11 @@
       <c r="BB169" t="s">
         <v>84</v>
       </c>
-      <c r="BC169" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="170" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="170" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T170" t="s">
+        <v>84</v>
+      </c>
       <c r="U170" t="s">
         <v>84</v>
       </c>
@@ -21901,11 +22036,11 @@
       <c r="BB170" t="s">
         <v>84</v>
       </c>
-      <c r="BC170" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="171" spans="21:55" x14ac:dyDescent="0.3">
+    <row r="171" spans="20:54" x14ac:dyDescent="0.3">
+      <c r="T171" t="s">
+        <v>84</v>
+      </c>
       <c r="U171" t="s">
         <v>84</v>
       </c>
@@ -22006,9 +22141,6 @@
         <v>84</v>
       </c>
       <c r="BB171" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC171" t="s">
         <v>84</v>
       </c>
     </row>
@@ -22063,698 +22195,25 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A61">
-    <sortCondition ref="A3:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A67">
+    <sortCondition ref="A3:A67"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="J1:S1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:S100">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3:S100">
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A100">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDAAACA-BC72-43E2-A839-9355324D61C9}">
-  <dimension ref="A1:B73"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" t="str">
-        <f>TRIM(LOWER(A1))</f>
-        <v>ainsworth irrigation district</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">TRIM(LOWER(A2))</f>
-        <v>boise project board of control</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>bridger valley water conservancy district</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>browns creek irrigation district</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>bufordtrenton irrigation district</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>california department of water resources</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>canadian river municipal water authority</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>carbon water conservancy district</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>carlsbad irrigation district</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>casitas municipal water district</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>central arizona project</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>central arizona water conservation district</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>central irrigation district</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>central oregon irrigation district</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>central utah water conservancy district</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>chimney rock irrigation district</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>city of corpus christi</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>city of rapid city</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>coachella valley water district</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>contra costa water district</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>cottonwood creek consolidated irrigation company</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>deaver irrigation district</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>eden valley irrigation and drainage district</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>el dorado irrigation district</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>emery water conservancy district</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>farmers irrigation district</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>fort shaw irrigation district</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>frenchman valley irrigation district</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>gering irrigation district</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>goshen irrigation district</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>greenfields irrigation district</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>hammond conservancy district</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>heart mountain irrigation district</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>imperial irrigation district</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>kittitas reclamation district</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>lewiston orchards irrigation district</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>little wood river irrigation district</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>loup river public power district</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>lower powder river irrigation district</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>madera irrigation district</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>mann creek irrigation district</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>255</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>mapleton irrigation company</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>maricopa water district</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>midvale irrigation district</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>mirage flats irrigation district</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>moon lake water users association</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>newton water users association</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>ogden river water users association</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>okanogan irrigation district</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>owl creek irrigation district</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>pacificorp</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>265</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>palo verde irrigation district</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>266</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>pathfinder irrigation district</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>pershing county water conservation district</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>268</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>provo river water users association</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>reeves county water improvement district 1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>salt river valley water users association</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>san benito county water district</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>272</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>san diego county water authority</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>273</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>sanpete water conservancy district</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>274</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>shoshone irrigation district</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>sidon irrigation district</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>solano county water agency</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>277</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>solano irrigation district</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>278</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>south columbia basin irrigation district</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>279</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B73" si="1">TRIM(LOWER(A66))</f>
-        <v>truckeecarson irrigation district</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>280</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="1"/>
-        <v>uintah water conservancy district</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>vale oregon irrigation district</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>weber basin water conservancy district</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>283</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>weber river water users association</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>284</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>whitestone reclamation district</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>285</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>willwood irrigation district</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>286</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>yakimatieton irrigation district</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A77">
-    <sortCondition ref="A1:A77"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>